--- a/AAII_Financials/Quarterly/BZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="92">
   <si>
     <t>BZ</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,168 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>121400</v>
+        <v>189700</v>
       </c>
       <c r="E8" s="3">
-        <v>99300</v>
+        <v>182900</v>
       </c>
       <c r="F8" s="3">
-        <v>90900</v>
+        <v>123400</v>
       </c>
       <c r="G8" s="3">
-        <v>65700</v>
+        <v>101000</v>
       </c>
       <c r="H8" s="3">
-        <v>43500</v>
+        <v>92400</v>
       </c>
       <c r="I8" s="3">
+        <v>66800</v>
+      </c>
+      <c r="J8" s="3">
+        <v>44200</v>
+      </c>
+      <c r="K8" s="3">
         <v>46800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>44400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>16500</v>
+        <v>24200</v>
       </c>
       <c r="E9" s="3">
-        <v>12200</v>
+        <v>22400</v>
       </c>
       <c r="F9" s="3">
-        <v>10600</v>
+        <v>16700</v>
       </c>
       <c r="G9" s="3">
-        <v>8300</v>
+        <v>12400</v>
       </c>
       <c r="H9" s="3">
-        <v>5800</v>
+        <v>10800</v>
       </c>
       <c r="I9" s="3">
-        <v>6300</v>
+        <v>8500</v>
       </c>
       <c r="J9" s="3">
         <v>5900</v>
       </c>
       <c r="K9" s="3">
+        <v>6300</v>
+      </c>
+      <c r="L9" s="3">
+        <v>5900</v>
+      </c>
+      <c r="M9" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>105000</v>
+        <v>165500</v>
       </c>
       <c r="E10" s="3">
-        <v>87100</v>
+        <v>160500</v>
       </c>
       <c r="F10" s="3">
-        <v>80300</v>
+        <v>106700</v>
       </c>
       <c r="G10" s="3">
-        <v>57300</v>
+        <v>88600</v>
       </c>
       <c r="H10" s="3">
-        <v>37700</v>
+        <v>81600</v>
       </c>
       <c r="I10" s="3">
+        <v>58300</v>
+      </c>
+      <c r="J10" s="3">
+        <v>38300</v>
+      </c>
+      <c r="K10" s="3">
         <v>40600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>38500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>32300</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,37 +838,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>25200</v>
+        <v>32800</v>
       </c>
       <c r="E12" s="3">
-        <v>23400</v>
+        <v>39100</v>
       </c>
       <c r="F12" s="3">
-        <v>21500</v>
+        <v>25600</v>
       </c>
       <c r="G12" s="3">
-        <v>18000</v>
+        <v>23800</v>
       </c>
       <c r="H12" s="3">
-        <v>16100</v>
+        <v>21900</v>
       </c>
       <c r="I12" s="3">
+        <v>18300</v>
+      </c>
+      <c r="J12" s="3">
+        <v>16400</v>
+      </c>
+      <c r="K12" s="3">
         <v>15600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>14100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -870,37 +904,49 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3">
         <v>-300</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="3">
         <v>-200</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +974,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +990,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>149100</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>10</v>
+        <v>141000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>405300</v>
+      </c>
+      <c r="F17" s="3">
+        <v>151600</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="3">
-        <v>86800</v>
+      <c r="H17" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>10</v>
+      <c r="J17" s="3">
+        <v>88200</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-27700</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>10</v>
+        <v>48700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-222400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-28200</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="3">
-        <v>-43200</v>
+      <c r="H18" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>10</v>
+      <c r="J18" s="3">
+        <v>-44000</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,66 +1075,80 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-24500</v>
+      <c r="D21" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>10</v>
+      <c r="F21" s="3">
+        <v>-24900</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="3">
-        <v>-42200</v>
+      <c r="H21" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>10</v>
+      <c r="J21" s="3">
+        <v>-42900</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,42 +1176,54 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-27100</v>
+        <v>49500</v>
       </c>
       <c r="E23" s="3">
-        <v>-81500</v>
+        <v>-221400</v>
       </c>
       <c r="F23" s="3">
-        <v>5200</v>
+        <v>-27600</v>
       </c>
       <c r="G23" s="3">
-        <v>-25800</v>
+        <v>-82900</v>
       </c>
       <c r="H23" s="3">
-        <v>-42900</v>
+        <v>5300</v>
       </c>
       <c r="I23" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-43700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-17900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-9800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>4700</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1154,8 +1246,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-27100</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>10</v>
+        <v>44800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-221400</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-27600</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H26" s="3">
-        <v>-42900</v>
+      <c r="H26" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>10</v>
+      <c r="J26" s="3">
+        <v>-43700</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-41300</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>10</v>
+        <v>44800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-232600</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-42000</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H27" s="3">
-        <v>-52900</v>
+      <c r="H27" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>10</v>
+      <c r="J27" s="3">
+        <v>-53800</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1491,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-41300</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>10</v>
+        <v>44800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-232600</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-42000</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H33" s="3">
-        <v>-52900</v>
+      <c r="H33" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>10</v>
+      <c r="J33" s="3">
+        <v>-53800</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-41300</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>10</v>
+        <v>44800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-232600</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-42000</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H35" s="3">
-        <v>-52900</v>
+      <c r="H35" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>10</v>
+      <c r="J35" s="3">
+        <v>-53800</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,19 +1705,21 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>631500</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>10</v>
+        <v>1684000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1736100</v>
+      </c>
+      <c r="F41" s="3">
+        <v>642100</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>10</v>
@@ -1562,19 +1736,25 @@
       <c r="K41" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>84700</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>10</v>
+        <v>185500</v>
+      </c>
+      <c r="E42" s="3">
+        <v>97000</v>
+      </c>
+      <c r="F42" s="3">
+        <v>86200</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>10</v>
@@ -1591,19 +1771,25 @@
       <c r="K42" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>20900</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>10</v>
+        <v>1200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F43" s="3">
+        <v>21200</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>10</v>
@@ -1620,8 +1806,14 @@
       <c r="K43" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,19 +1841,25 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>23800</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>10</v>
+        <v>94400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>41200</v>
+      </c>
+      <c r="F45" s="3">
+        <v>24200</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>10</v>
@@ -1678,19 +1876,25 @@
       <c r="K45" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>760900</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>10</v>
+        <v>1965100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1876200</v>
+      </c>
+      <c r="F46" s="3">
+        <v>773700</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>10</v>
@@ -1707,8 +1911,14 @@
       <c r="K46" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,19 +1946,25 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>57800</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>10</v>
+        <v>83000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>65900</v>
+      </c>
+      <c r="F48" s="3">
+        <v>58800</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>10</v>
@@ -1765,19 +1981,25 @@
       <c r="K48" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>100</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>10</v>
+      <c r="E49" s="3">
+        <v>100</v>
+      </c>
+      <c r="F49" s="3">
+        <v>100</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>10</v>
@@ -1794,8 +2016,14 @@
       <c r="K49" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,20 +2086,26 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>600</v>
+      </c>
+      <c r="F52" s="3">
         <v>100</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>10</v>
       </c>
@@ -1881,8 +2121,14 @@
       <c r="K52" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,19 +2156,25 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>818900</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>10</v>
+        <v>2048800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1942800</v>
+      </c>
+      <c r="F54" s="3">
+        <v>832700</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>10</v>
@@ -1939,8 +2191,14 @@
       <c r="K54" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,19 +2225,21 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>14600</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>10</v>
+        <v>74100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>74400</v>
+      </c>
+      <c r="F57" s="3">
+        <v>14900</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>10</v>
@@ -1994,8 +2256,14 @@
       <c r="K57" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2023,19 +2291,25 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>309900</v>
+      </c>
+      <c r="E59" s="3">
         <v>305900</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>10</v>
+      <c r="F59" s="3">
+        <v>311100</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>10</v>
@@ -2052,19 +2326,25 @@
       <c r="K59" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>320600</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>10</v>
+        <v>384100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>380300</v>
+      </c>
+      <c r="F60" s="3">
+        <v>325900</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>10</v>
@@ -2081,8 +2361,14 @@
       <c r="K60" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,19 +2396,25 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>14400</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>10</v>
+        <v>24800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>15400</v>
+      </c>
+      <c r="F62" s="3">
+        <v>14700</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>10</v>
@@ -2139,8 +2431,14 @@
       <c r="K62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,19 +2536,25 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>335000</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>10</v>
+        <v>408800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>395700</v>
+      </c>
+      <c r="F66" s="3">
+        <v>340600</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>10</v>
@@ -2255,8 +2571,14 @@
       <c r="K66" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,19 +2656,25 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>890400</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>905400</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2355,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,19 +2726,25 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-430900</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>10</v>
+        <v>-614700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-659500</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-438100</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>10</v>
@@ -2413,8 +2761,14 @@
       <c r="K72" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,19 +2866,25 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-406500</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>10</v>
+        <v>1639900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1547100</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-413300</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>10</v>
@@ -2529,8 +2901,14 @@
       <c r="K76" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-41300</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>10</v>
+        <v>44800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-232600</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-42000</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H81" s="3">
-        <v>-52900</v>
+      <c r="H81" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>10</v>
+      <c r="J81" s="3">
+        <v>-53800</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,19 +3030,21 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>2600</v>
+      <c r="D83" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>10</v>
+      <c r="F83" s="3">
+        <v>2700</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>10</v>
@@ -2663,8 +3061,14 @@
       <c r="K83" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,19 +3236,25 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>25500</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>10</v>
+        <v>42300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>105100</v>
+      </c>
+      <c r="F89" s="3">
+        <v>25900</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>10</v>
@@ -2837,8 +3271,14 @@
       <c r="K89" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,19 +3290,21 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-9500</v>
+      <c r="D91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>10</v>
+      <c r="F91" s="3">
+        <v>-9600</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>10</v>
@@ -2879,8 +3321,14 @@
       <c r="K91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,19 +3391,25 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-11800</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>10</v>
+        <v>-99900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-12000</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>10</v>
@@ -2966,8 +3426,14 @@
       <c r="K94" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,20 +3581,26 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1005800</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1900</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>10</v>
       </c>
@@ -3124,20 +3616,26 @@
       <c r="K100" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F101" s="3">
         <v>4100</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>10</v>
       </c>
@@ -3153,19 +3651,25 @@
       <c r="K101" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>15900</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>10</v>
+        <v>-52100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1094000</v>
+      </c>
+      <c r="F102" s="3">
+        <v>16100</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>10</v>
@@ -3180,6 +3684,12 @@
         <v>10</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BZ_QTR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>189700</v>
+        <v>191200</v>
       </c>
       <c r="E8" s="3">
-        <v>182900</v>
+        <v>184300</v>
       </c>
       <c r="F8" s="3">
-        <v>123400</v>
+        <v>124400</v>
       </c>
       <c r="G8" s="3">
-        <v>101000</v>
+        <v>101800</v>
       </c>
       <c r="H8" s="3">
-        <v>92400</v>
+        <v>93100</v>
       </c>
       <c r="I8" s="3">
-        <v>66800</v>
+        <v>67300</v>
       </c>
       <c r="J8" s="3">
-        <v>44200</v>
+        <v>44600</v>
       </c>
       <c r="K8" s="3">
         <v>46800</v>
@@ -761,25 +761,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>24200</v>
+        <v>24400</v>
       </c>
       <c r="E9" s="3">
-        <v>22400</v>
+        <v>22600</v>
       </c>
       <c r="F9" s="3">
-        <v>16700</v>
+        <v>16900</v>
       </c>
       <c r="G9" s="3">
-        <v>12400</v>
+        <v>12500</v>
       </c>
       <c r="H9" s="3">
-        <v>10800</v>
+        <v>10900</v>
       </c>
       <c r="I9" s="3">
-        <v>8500</v>
+        <v>8600</v>
       </c>
       <c r="J9" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="K9" s="3">
         <v>6300</v>
@@ -796,25 +796,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>165500</v>
+        <v>166700</v>
       </c>
       <c r="E10" s="3">
-        <v>160500</v>
+        <v>161700</v>
       </c>
       <c r="F10" s="3">
-        <v>106700</v>
+        <v>107500</v>
       </c>
       <c r="G10" s="3">
-        <v>88600</v>
+        <v>89300</v>
       </c>
       <c r="H10" s="3">
-        <v>81600</v>
+        <v>82200</v>
       </c>
       <c r="I10" s="3">
-        <v>58300</v>
+        <v>58700</v>
       </c>
       <c r="J10" s="3">
-        <v>38300</v>
+        <v>38600</v>
       </c>
       <c r="K10" s="3">
         <v>40600</v>
@@ -846,25 +846,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>32800</v>
+        <v>33000</v>
       </c>
       <c r="E12" s="3">
-        <v>39100</v>
+        <v>39400</v>
       </c>
       <c r="F12" s="3">
-        <v>25600</v>
+        <v>25800</v>
       </c>
       <c r="G12" s="3">
-        <v>23800</v>
+        <v>24000</v>
       </c>
       <c r="H12" s="3">
-        <v>21900</v>
+        <v>22000</v>
       </c>
       <c r="I12" s="3">
-        <v>18300</v>
+        <v>18500</v>
       </c>
       <c r="J12" s="3">
-        <v>16400</v>
+        <v>16500</v>
       </c>
       <c r="K12" s="3">
         <v>15600</v>
@@ -998,13 +998,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>141000</v>
+        <v>142100</v>
       </c>
       <c r="E17" s="3">
-        <v>405300</v>
+        <v>408400</v>
       </c>
       <c r="F17" s="3">
-        <v>151600</v>
+        <v>152800</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>10</v>
@@ -1016,7 +1016,7 @@
         <v>10</v>
       </c>
       <c r="J17" s="3">
-        <v>88200</v>
+        <v>88900</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>10</v>
@@ -1033,13 +1033,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>48700</v>
+        <v>49100</v>
       </c>
       <c r="E18" s="3">
-        <v>-222400</v>
+        <v>-224100</v>
       </c>
       <c r="F18" s="3">
-        <v>-28200</v>
+        <v>-28400</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>10</v>
@@ -1051,7 +1051,7 @@
         <v>10</v>
       </c>
       <c r="J18" s="3">
-        <v>-44000</v>
+        <v>-44300</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>10</v>
@@ -1124,7 +1124,7 @@
         <v>10</v>
       </c>
       <c r="F21" s="3">
-        <v>-24900</v>
+        <v>-25100</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>10</v>
@@ -1136,7 +1136,7 @@
         <v>10</v>
       </c>
       <c r="J21" s="3">
-        <v>-42900</v>
+        <v>-43200</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>10</v>
@@ -1188,25 +1188,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>49500</v>
+        <v>49900</v>
       </c>
       <c r="E23" s="3">
-        <v>-221400</v>
+        <v>-223100</v>
       </c>
       <c r="F23" s="3">
-        <v>-27600</v>
+        <v>-27800</v>
       </c>
       <c r="G23" s="3">
-        <v>-82900</v>
+        <v>-83500</v>
       </c>
       <c r="H23" s="3">
         <v>5300</v>
       </c>
       <c r="I23" s="3">
-        <v>-26200</v>
+        <v>-26400</v>
       </c>
       <c r="J23" s="3">
-        <v>-43700</v>
+        <v>-44000</v>
       </c>
       <c r="K23" s="3">
         <v>-17900</v>
@@ -1293,13 +1293,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>44800</v>
+        <v>45100</v>
       </c>
       <c r="E26" s="3">
-        <v>-221400</v>
+        <v>-223100</v>
       </c>
       <c r="F26" s="3">
-        <v>-27600</v>
+        <v>-27800</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>10</v>
@@ -1311,7 +1311,7 @@
         <v>10</v>
       </c>
       <c r="J26" s="3">
-        <v>-43700</v>
+        <v>-44000</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>10</v>
@@ -1328,13 +1328,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>44800</v>
+        <v>45100</v>
       </c>
       <c r="E27" s="3">
-        <v>-232600</v>
+        <v>-234400</v>
       </c>
       <c r="F27" s="3">
-        <v>-42000</v>
+        <v>-42300</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>10</v>
@@ -1346,7 +1346,7 @@
         <v>10</v>
       </c>
       <c r="J27" s="3">
-        <v>-53800</v>
+        <v>-54200</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>10</v>
@@ -1538,13 +1538,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>44800</v>
+        <v>45100</v>
       </c>
       <c r="E33" s="3">
-        <v>-232600</v>
+        <v>-234400</v>
       </c>
       <c r="F33" s="3">
-        <v>-42000</v>
+        <v>-42300</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>10</v>
@@ -1556,7 +1556,7 @@
         <v>10</v>
       </c>
       <c r="J33" s="3">
-        <v>-53800</v>
+        <v>-54200</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>10</v>
@@ -1608,13 +1608,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>44800</v>
+        <v>45100</v>
       </c>
       <c r="E35" s="3">
-        <v>-232600</v>
+        <v>-234400</v>
       </c>
       <c r="F35" s="3">
-        <v>-42000</v>
+        <v>-42300</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>10</v>
@@ -1626,7 +1626,7 @@
         <v>10</v>
       </c>
       <c r="J35" s="3">
-        <v>-53800</v>
+        <v>-54200</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>10</v>
@@ -1713,13 +1713,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1684000</v>
+        <v>1696900</v>
       </c>
       <c r="E41" s="3">
-        <v>1736100</v>
+        <v>1749400</v>
       </c>
       <c r="F41" s="3">
-        <v>642100</v>
+        <v>647000</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>10</v>
@@ -1748,13 +1748,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>185500</v>
+        <v>186900</v>
       </c>
       <c r="E42" s="3">
-        <v>97000</v>
+        <v>97800</v>
       </c>
       <c r="F42" s="3">
-        <v>86200</v>
+        <v>86800</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>10</v>
@@ -1789,7 +1789,7 @@
         <v>1800</v>
       </c>
       <c r="F43" s="3">
-        <v>21200</v>
+        <v>21400</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>10</v>
@@ -1853,13 +1853,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>94400</v>
+        <v>95100</v>
       </c>
       <c r="E45" s="3">
-        <v>41200</v>
+        <v>41500</v>
       </c>
       <c r="F45" s="3">
-        <v>24200</v>
+        <v>24400</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>10</v>
@@ -1888,13 +1888,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1965100</v>
+        <v>1980100</v>
       </c>
       <c r="E46" s="3">
-        <v>1876200</v>
+        <v>1890500</v>
       </c>
       <c r="F46" s="3">
-        <v>773700</v>
+        <v>779600</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>10</v>
@@ -1958,13 +1958,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>83000</v>
+        <v>83700</v>
       </c>
       <c r="E48" s="3">
-        <v>65900</v>
+        <v>66400</v>
       </c>
       <c r="F48" s="3">
-        <v>58800</v>
+        <v>59300</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>10</v>
@@ -2168,13 +2168,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2048800</v>
+        <v>2064500</v>
       </c>
       <c r="E54" s="3">
-        <v>1942800</v>
+        <v>1957700</v>
       </c>
       <c r="F54" s="3">
-        <v>832700</v>
+        <v>839100</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>10</v>
@@ -2233,13 +2233,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>74100</v>
+        <v>74700</v>
       </c>
       <c r="E57" s="3">
-        <v>74400</v>
+        <v>74900</v>
       </c>
       <c r="F57" s="3">
-        <v>14900</v>
+        <v>15000</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>10</v>
@@ -2303,13 +2303,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>309900</v>
+        <v>312300</v>
       </c>
       <c r="E59" s="3">
-        <v>305900</v>
+        <v>308300</v>
       </c>
       <c r="F59" s="3">
-        <v>311100</v>
+        <v>313500</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>10</v>
@@ -2338,13 +2338,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>384100</v>
+        <v>387000</v>
       </c>
       <c r="E60" s="3">
-        <v>380300</v>
+        <v>383200</v>
       </c>
       <c r="F60" s="3">
-        <v>325900</v>
+        <v>328400</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>10</v>
@@ -2408,13 +2408,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>24800</v>
+        <v>25000</v>
       </c>
       <c r="E62" s="3">
-        <v>15400</v>
+        <v>15500</v>
       </c>
       <c r="F62" s="3">
-        <v>14700</v>
+        <v>14800</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>10</v>
@@ -2548,13 +2548,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>408800</v>
+        <v>412000</v>
       </c>
       <c r="E66" s="3">
-        <v>395700</v>
+        <v>398700</v>
       </c>
       <c r="F66" s="3">
-        <v>340600</v>
+        <v>343200</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>10</v>
@@ -2674,7 +2674,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>905400</v>
+        <v>912300</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2738,13 +2738,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-614700</v>
+        <v>-619400</v>
       </c>
       <c r="E72" s="3">
-        <v>-659500</v>
+        <v>-664500</v>
       </c>
       <c r="F72" s="3">
-        <v>-438100</v>
+        <v>-441400</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>10</v>
@@ -2878,13 +2878,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1639900</v>
+        <v>1652500</v>
       </c>
       <c r="E76" s="3">
-        <v>1547100</v>
+        <v>1559000</v>
       </c>
       <c r="F76" s="3">
-        <v>-413300</v>
+        <v>-416500</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>10</v>
@@ -2988,13 +2988,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>44800</v>
+        <v>45100</v>
       </c>
       <c r="E81" s="3">
-        <v>-232600</v>
+        <v>-234400</v>
       </c>
       <c r="F81" s="3">
-        <v>-42000</v>
+        <v>-42300</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>10</v>
@@ -3006,7 +3006,7 @@
         <v>10</v>
       </c>
       <c r="J81" s="3">
-        <v>-53800</v>
+        <v>-54200</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>10</v>
@@ -3248,13 +3248,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>42300</v>
+        <v>42600</v>
       </c>
       <c r="E89" s="3">
-        <v>105100</v>
+        <v>105900</v>
       </c>
       <c r="F89" s="3">
-        <v>25900</v>
+        <v>26100</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>10</v>
@@ -3304,7 +3304,7 @@
         <v>10</v>
       </c>
       <c r="F91" s="3">
-        <v>-9600</v>
+        <v>-9700</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>10</v>
@@ -3403,13 +3403,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-99900</v>
+        <v>-100700</v>
       </c>
       <c r="E94" s="3">
-        <v>-14200</v>
+        <v>-14300</v>
       </c>
       <c r="F94" s="3">
-        <v>-12000</v>
+        <v>-12100</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>10</v>
@@ -3596,7 +3596,7 @@
         <v>-400</v>
       </c>
       <c r="E100" s="3">
-        <v>1005800</v>
+        <v>1013500</v>
       </c>
       <c r="F100" s="3">
         <v>-1900</v>
@@ -3634,7 +3634,7 @@
         <v>-2700</v>
       </c>
       <c r="F101" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>10</v>
@@ -3663,13 +3663,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-52100</v>
+        <v>-52500</v>
       </c>
       <c r="E102" s="3">
-        <v>1094000</v>
+        <v>1102400</v>
       </c>
       <c r="F102" s="3">
-        <v>16100</v>
+        <v>16300</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>10</v>

--- a/AAII_Financials/Quarterly/BZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="92">
   <si>
     <t>BZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,180 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>191200</v>
+        <v>160700</v>
       </c>
       <c r="E8" s="3">
-        <v>184300</v>
+        <v>178600</v>
       </c>
       <c r="F8" s="3">
-        <v>124400</v>
+        <v>172100</v>
       </c>
       <c r="G8" s="3">
-        <v>101800</v>
+        <v>116200</v>
       </c>
       <c r="H8" s="3">
-        <v>93100</v>
+        <v>95100</v>
       </c>
       <c r="I8" s="3">
-        <v>67300</v>
+        <v>87000</v>
       </c>
       <c r="J8" s="3">
+        <v>62800</v>
+      </c>
+      <c r="K8" s="3">
         <v>44600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>46800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>44400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>24400</v>
+        <v>22100</v>
       </c>
       <c r="E9" s="3">
-        <v>22600</v>
+        <v>22800</v>
       </c>
       <c r="F9" s="3">
-        <v>16900</v>
+        <v>21100</v>
       </c>
       <c r="G9" s="3">
-        <v>12500</v>
+        <v>15700</v>
       </c>
       <c r="H9" s="3">
-        <v>10900</v>
+        <v>11700</v>
       </c>
       <c r="I9" s="3">
-        <v>8600</v>
+        <v>10200</v>
       </c>
       <c r="J9" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K9" s="3">
         <v>6000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>166700</v>
+        <v>138700</v>
       </c>
       <c r="E10" s="3">
-        <v>161700</v>
+        <v>155800</v>
       </c>
       <c r="F10" s="3">
-        <v>107500</v>
+        <v>151000</v>
       </c>
       <c r="G10" s="3">
-        <v>89300</v>
+        <v>100400</v>
       </c>
       <c r="H10" s="3">
-        <v>82200</v>
+        <v>83400</v>
       </c>
       <c r="I10" s="3">
-        <v>58700</v>
+        <v>76800</v>
       </c>
       <c r="J10" s="3">
+        <v>54900</v>
+      </c>
+      <c r="K10" s="3">
         <v>38600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>40600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>38500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>32300</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,43 +852,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>33000</v>
+        <v>29300</v>
       </c>
       <c r="E12" s="3">
-        <v>39400</v>
+        <v>30800</v>
       </c>
       <c r="F12" s="3">
-        <v>25800</v>
+        <v>36800</v>
       </c>
       <c r="G12" s="3">
-        <v>24000</v>
+        <v>24100</v>
       </c>
       <c r="H12" s="3">
-        <v>22000</v>
+        <v>22400</v>
       </c>
       <c r="I12" s="3">
-        <v>18500</v>
+        <v>20600</v>
       </c>
       <c r="J12" s="3">
+        <v>17200</v>
+      </c>
+      <c r="K12" s="3">
         <v>16500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>15600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>14100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -910,8 +926,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -921,32 +940,35 @@
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3">
         <v>-300</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="3">
         <v>-200</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1002,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,22 +1017,23 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>142100</v>
+        <v>123400</v>
       </c>
       <c r="E17" s="3">
-        <v>408400</v>
+        <v>132700</v>
       </c>
       <c r="F17" s="3">
-        <v>152800</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>10</v>
+        <v>381500</v>
+      </c>
+      <c r="G17" s="3">
+        <v>142700</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>10</v>
@@ -1015,34 +1041,37 @@
       <c r="I17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="3">
         <v>88900</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>49100</v>
+        <v>37300</v>
       </c>
       <c r="E18" s="3">
-        <v>-224100</v>
+        <v>45900</v>
       </c>
       <c r="F18" s="3">
-        <v>-28400</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>10</v>
+        <v>-209400</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-26500</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>10</v>
@@ -1050,20 +1079,23 @@
       <c r="I18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="3">
         <v>-44300</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,43 +1109,47 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="E20" s="3">
+        <v>700</v>
+      </c>
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1123,11 +1159,11 @@
       <c r="E21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="3">
-        <v>-25100</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>10</v>
+      <c r="F21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-23400</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>10</v>
@@ -1135,20 +1171,23 @@
       <c r="I21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="3">
         <v>-43200</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1182,51 +1221,57 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>49900</v>
+        <v>38700</v>
       </c>
       <c r="E23" s="3">
-        <v>-223100</v>
+        <v>46600</v>
       </c>
       <c r="F23" s="3">
-        <v>-27800</v>
+        <v>-208400</v>
       </c>
       <c r="G23" s="3">
-        <v>-83500</v>
+        <v>-26000</v>
       </c>
       <c r="H23" s="3">
-        <v>5300</v>
+        <v>-78000</v>
       </c>
       <c r="I23" s="3">
-        <v>-26400</v>
+        <v>5000</v>
       </c>
       <c r="J23" s="3">
+        <v>-24700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-44000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-17900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-9800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4700</v>
+        <v>4300</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>4400</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1252,8 +1297,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,22 +1335,25 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>45100</v>
+        <v>34300</v>
       </c>
       <c r="E26" s="3">
-        <v>-223100</v>
+        <v>42200</v>
       </c>
       <c r="F26" s="3">
-        <v>-27800</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>10</v>
+        <v>-208400</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-26000</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>10</v>
@@ -1310,34 +1361,37 @@
       <c r="I26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="3">
         <v>-44000</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>45100</v>
+        <v>34300</v>
       </c>
       <c r="E27" s="3">
-        <v>-234400</v>
+        <v>42200</v>
       </c>
       <c r="F27" s="3">
-        <v>-42300</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>10</v>
+        <v>-219000</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-39600</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>10</v>
@@ -1345,20 +1399,23 @@
       <c r="I27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27" s="3">
         <v>-54200</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1487,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,57 +1563,63 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-800</v>
+        <v>-1400</v>
       </c>
       <c r="E32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>45100</v>
+        <v>34300</v>
       </c>
       <c r="E33" s="3">
-        <v>-234400</v>
+        <v>42200</v>
       </c>
       <c r="F33" s="3">
-        <v>-42300</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>10</v>
+        <v>-219000</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-39600</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>10</v>
@@ -1555,20 +1627,23 @@
       <c r="I33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K33" s="3">
         <v>-54200</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,22 +1677,25 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>45100</v>
+        <v>34300</v>
       </c>
       <c r="E35" s="3">
-        <v>-234400</v>
+        <v>42200</v>
       </c>
       <c r="F35" s="3">
-        <v>-42300</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>10</v>
+        <v>-219000</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-39600</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>10</v>
@@ -1625,60 +1703,66 @@
       <c r="I35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K35" s="3">
         <v>-54200</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,22 +1792,23 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1696900</v>
+        <v>1671300</v>
       </c>
       <c r="E41" s="3">
-        <v>1749400</v>
+        <v>1585100</v>
       </c>
       <c r="F41" s="3">
-        <v>647000</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>10</v>
+        <v>1634100</v>
+      </c>
+      <c r="G41" s="3">
+        <v>604400</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>10</v>
@@ -1742,22 +1828,25 @@
       <c r="M41" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>186900</v>
+        <v>130400</v>
       </c>
       <c r="E42" s="3">
-        <v>97800</v>
+        <v>174600</v>
       </c>
       <c r="F42" s="3">
-        <v>86800</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>10</v>
+        <v>91300</v>
+      </c>
+      <c r="G42" s="3">
+        <v>81100</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>10</v>
@@ -1777,22 +1866,25 @@
       <c r="M42" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1200</v>
+        <v>61000</v>
       </c>
       <c r="E43" s="3">
-        <v>1800</v>
+        <v>1100</v>
       </c>
       <c r="F43" s="3">
-        <v>21400</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>10</v>
+        <v>1700</v>
+      </c>
+      <c r="G43" s="3">
+        <v>20000</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>10</v>
@@ -1812,8 +1904,11 @@
       <c r="M43" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,22 +1942,25 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>95100</v>
+        <v>46900</v>
       </c>
       <c r="E45" s="3">
-        <v>41500</v>
+        <v>88800</v>
       </c>
       <c r="F45" s="3">
-        <v>24400</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>10</v>
+        <v>38800</v>
+      </c>
+      <c r="G45" s="3">
+        <v>22800</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>10</v>
@@ -1882,22 +1980,25 @@
       <c r="M45" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1980100</v>
+        <v>1909600</v>
       </c>
       <c r="E46" s="3">
-        <v>1890500</v>
+        <v>1849600</v>
       </c>
       <c r="F46" s="3">
-        <v>779600</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>10</v>
+        <v>1765900</v>
+      </c>
+      <c r="G46" s="3">
+        <v>728200</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>10</v>
@@ -1917,8 +2018,11 @@
       <c r="M46" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1952,22 +2056,25 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>83700</v>
+        <v>99900</v>
       </c>
       <c r="E48" s="3">
-        <v>66400</v>
+        <v>78100</v>
       </c>
       <c r="F48" s="3">
-        <v>59300</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>10</v>
+        <v>62100</v>
+      </c>
+      <c r="G48" s="3">
+        <v>55400</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>10</v>
@@ -1987,8 +2094,11 @@
       <c r="M48" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2001,8 +2111,8 @@
       <c r="F49" s="3">
         <v>100</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>10</v>
+      <c r="G49" s="3">
+        <v>100</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>10</v>
@@ -2022,8 +2132,11 @@
       <c r="M49" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,8 +2208,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2104,11 +2223,11 @@
         <v>600</v>
       </c>
       <c r="F52" s="3">
+        <v>600</v>
+      </c>
+      <c r="G52" s="3">
         <v>100</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>10</v>
       </c>
@@ -2127,8 +2246,11 @@
       <c r="M52" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,22 +2284,25 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2064500</v>
+        <v>2010200</v>
       </c>
       <c r="E54" s="3">
-        <v>1957700</v>
+        <v>1928400</v>
       </c>
       <c r="F54" s="3">
-        <v>839100</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>10</v>
+        <v>1828600</v>
+      </c>
+      <c r="G54" s="3">
+        <v>783700</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>10</v>
@@ -2197,8 +2322,11 @@
       <c r="M54" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,22 +2356,23 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>74700</v>
+        <v>7500</v>
       </c>
       <c r="E57" s="3">
-        <v>74900</v>
+        <v>69800</v>
       </c>
       <c r="F57" s="3">
-        <v>15000</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>10</v>
+        <v>70000</v>
+      </c>
+      <c r="G57" s="3">
+        <v>14000</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>10</v>
@@ -2262,8 +2392,11 @@
       <c r="M57" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2297,22 +2430,25 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>312300</v>
+        <v>402800</v>
       </c>
       <c r="E59" s="3">
-        <v>308300</v>
+        <v>291700</v>
       </c>
       <c r="F59" s="3">
-        <v>313500</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>10</v>
+        <v>287900</v>
+      </c>
+      <c r="G59" s="3">
+        <v>292800</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>10</v>
@@ -2332,22 +2468,25 @@
       <c r="M59" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>387000</v>
+        <v>410300</v>
       </c>
       <c r="E60" s="3">
-        <v>383200</v>
+        <v>361500</v>
       </c>
       <c r="F60" s="3">
-        <v>328400</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>10</v>
+        <v>358000</v>
+      </c>
+      <c r="G60" s="3">
+        <v>306800</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>10</v>
@@ -2367,8 +2506,11 @@
       <c r="M60" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2402,22 +2544,25 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="E62" s="3">
-        <v>15500</v>
+        <v>23300</v>
       </c>
       <c r="F62" s="3">
-        <v>14800</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>10</v>
+        <v>14500</v>
+      </c>
+      <c r="G62" s="3">
+        <v>13800</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>10</v>
@@ -2437,8 +2582,11 @@
       <c r="M62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,22 +2696,25 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>412000</v>
+        <v>437300</v>
       </c>
       <c r="E66" s="3">
-        <v>398700</v>
+        <v>384800</v>
       </c>
       <c r="F66" s="3">
-        <v>343200</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>10</v>
+        <v>372400</v>
+      </c>
+      <c r="G66" s="3">
+        <v>320600</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>10</v>
@@ -2577,8 +2734,11 @@
       <c r="M66" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2674,10 +2841,10 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>912300</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>852200</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2697,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,22 +2902,25 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-619400</v>
+        <v>-544200</v>
       </c>
       <c r="E72" s="3">
-        <v>-664500</v>
+        <v>-578600</v>
       </c>
       <c r="F72" s="3">
-        <v>-441400</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>10</v>
+        <v>-620700</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-412300</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>10</v>
@@ -2767,8 +2940,11 @@
       <c r="M72" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,22 +3054,25 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1652500</v>
+        <v>1572900</v>
       </c>
       <c r="E76" s="3">
-        <v>1559000</v>
+        <v>1543600</v>
       </c>
       <c r="F76" s="3">
-        <v>-416500</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>10</v>
+        <v>1456200</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-389000</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>10</v>
@@ -2907,8 +3092,11 @@
       <c r="M76" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,62 +3130,68 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>45100</v>
+        <v>34300</v>
       </c>
       <c r="E81" s="3">
-        <v>-234400</v>
+        <v>42200</v>
       </c>
       <c r="F81" s="3">
-        <v>-42300</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>10</v>
+        <v>-219000</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-39600</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>10</v>
@@ -3005,20 +3199,23 @@
       <c r="I81" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J81" s="3">
+      <c r="J81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K81" s="3">
         <v>-54200</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3229,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3043,11 +3241,11 @@
       <c r="E83" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F83" s="3">
-        <v>2700</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>10</v>
+      <c r="F83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="3">
+        <v>2500</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>10</v>
@@ -3067,8 +3265,11 @@
       <c r="M83" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,22 +3455,25 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>42600</v>
+        <v>78800</v>
       </c>
       <c r="E89" s="3">
-        <v>105900</v>
+        <v>39800</v>
       </c>
       <c r="F89" s="3">
-        <v>26100</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>10</v>
+        <v>98900</v>
+      </c>
+      <c r="G89" s="3">
+        <v>24400</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>10</v>
@@ -3277,8 +3493,11 @@
       <c r="M89" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,8 +3511,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3303,11 +3523,11 @@
       <c r="E91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F91" s="3">
-        <v>-9700</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>10</v>
+      <c r="F91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-9100</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>10</v>
@@ -3327,8 +3547,11 @@
       <c r="M91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,22 +3623,25 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100700</v>
+        <v>30000</v>
       </c>
       <c r="E94" s="3">
-        <v>-14300</v>
+        <v>-94100</v>
       </c>
       <c r="F94" s="3">
-        <v>-12100</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>10</v>
+        <v>-13400</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-11300</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>10</v>
@@ -3432,8 +3661,11 @@
       <c r="M94" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3679,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3715,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,22 +3829,25 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-400</v>
+        <v>3200</v>
       </c>
       <c r="E100" s="3">
-        <v>1013500</v>
+        <v>-300</v>
       </c>
       <c r="F100" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>10</v>
+        <v>946700</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-1800</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>10</v>
@@ -3622,22 +3867,25 @@
       <c r="M100" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>6000</v>
+        <v>-25800</v>
       </c>
       <c r="E101" s="3">
-        <v>-2700</v>
+        <v>5600</v>
       </c>
       <c r="F101" s="3">
-        <v>4200</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>10</v>
+        <v>-2500</v>
+      </c>
+      <c r="G101" s="3">
+        <v>3900</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>10</v>
@@ -3657,22 +3905,25 @@
       <c r="M101" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-52500</v>
+        <v>86300</v>
       </c>
       <c r="E102" s="3">
-        <v>1102400</v>
+        <v>-49000</v>
       </c>
       <c r="F102" s="3">
-        <v>16300</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>10</v>
+        <v>1029700</v>
+      </c>
+      <c r="G102" s="3">
+        <v>15200</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>10</v>
@@ -3690,6 +3941,9 @@
         <v>10</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="92">
   <si>
     <t>BZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,180 +665,206 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>160700</v>
+        <v>162400</v>
       </c>
       <c r="E8" s="3">
-        <v>178600</v>
+        <v>166200</v>
       </c>
       <c r="F8" s="3">
-        <v>172100</v>
+        <v>159300</v>
       </c>
       <c r="G8" s="3">
-        <v>116200</v>
+        <v>177000</v>
       </c>
       <c r="H8" s="3">
-        <v>95100</v>
+        <v>170600</v>
       </c>
       <c r="I8" s="3">
+        <v>115100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>94200</v>
+      </c>
+      <c r="K8" s="3">
         <v>87000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>62800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>44600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>46800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>44400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>22100</v>
+        <v>25400</v>
       </c>
       <c r="E9" s="3">
-        <v>22800</v>
+        <v>25900</v>
       </c>
       <c r="F9" s="3">
-        <v>21100</v>
+        <v>21900</v>
       </c>
       <c r="G9" s="3">
-        <v>15700</v>
+        <v>22600</v>
       </c>
       <c r="H9" s="3">
-        <v>11700</v>
+        <v>20900</v>
       </c>
       <c r="I9" s="3">
+        <v>15600</v>
+      </c>
+      <c r="J9" s="3">
+        <v>11600</v>
+      </c>
+      <c r="K9" s="3">
         <v>10200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>8000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>6000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>6300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>5900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>138700</v>
+        <v>137000</v>
       </c>
       <c r="E10" s="3">
-        <v>155800</v>
+        <v>140300</v>
       </c>
       <c r="F10" s="3">
-        <v>151000</v>
+        <v>137400</v>
       </c>
       <c r="G10" s="3">
-        <v>100400</v>
+        <v>154300</v>
       </c>
       <c r="H10" s="3">
-        <v>83400</v>
+        <v>149700</v>
       </c>
       <c r="I10" s="3">
+        <v>99500</v>
+      </c>
+      <c r="J10" s="3">
+        <v>82600</v>
+      </c>
+      <c r="K10" s="3">
         <v>76800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>54900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>38600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>40600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>38500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>32300</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,46 +879,54 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>29300</v>
+        <v>44900</v>
       </c>
       <c r="E12" s="3">
-        <v>30800</v>
+        <v>42500</v>
       </c>
       <c r="F12" s="3">
-        <v>36800</v>
+        <v>29100</v>
       </c>
       <c r="G12" s="3">
-        <v>24100</v>
+        <v>30600</v>
       </c>
       <c r="H12" s="3">
-        <v>22400</v>
+        <v>36500</v>
       </c>
       <c r="I12" s="3">
+        <v>23900</v>
+      </c>
+      <c r="J12" s="3">
+        <v>22200</v>
+      </c>
+      <c r="K12" s="3">
         <v>20600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>17200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>16500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>15600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>14100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -929,8 +963,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -943,32 +983,38 @@
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3">
         <v>-300</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="3">
         <v>-200</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1051,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,84 +1070,98 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>123400</v>
+        <v>151300</v>
       </c>
       <c r="E17" s="3">
-        <v>132700</v>
+        <v>166600</v>
       </c>
       <c r="F17" s="3">
-        <v>381500</v>
+        <v>122300</v>
       </c>
       <c r="G17" s="3">
-        <v>142700</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>10</v>
+        <v>131500</v>
+      </c>
+      <c r="H17" s="3">
+        <v>378100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>141400</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M17" s="3">
         <v>88900</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>37300</v>
+        <v>11100</v>
       </c>
       <c r="E18" s="3">
-        <v>45900</v>
+        <v>-500</v>
       </c>
       <c r="F18" s="3">
-        <v>-209400</v>
+        <v>37000</v>
       </c>
       <c r="G18" s="3">
-        <v>-26500</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>10</v>
+        <v>45400</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-207500</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-26300</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18" s="3">
         <v>-44300</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,46 +1176,54 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1400</v>
+        <v>4800</v>
       </c>
       <c r="E20" s="3">
+        <v>500</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1162,32 +1236,38 @@
       <c r="F21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="3">
-        <v>-23400</v>
+      <c r="G21" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>10</v>
+      <c r="I21" s="3">
+        <v>-23200</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M21" s="3">
         <v>-43200</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1224,61 +1304,73 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>38700</v>
+        <v>15900</v>
       </c>
       <c r="E23" s="3">
-        <v>46600</v>
+        <v>100</v>
       </c>
       <c r="F23" s="3">
-        <v>-208400</v>
+        <v>38300</v>
       </c>
       <c r="G23" s="3">
-        <v>-26000</v>
+        <v>46200</v>
       </c>
       <c r="H23" s="3">
-        <v>-78000</v>
+        <v>-206500</v>
       </c>
       <c r="I23" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-77300</v>
+      </c>
+      <c r="K23" s="3">
         <v>5000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-24700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-44000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-17900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-9800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F24" s="3">
         <v>4300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>4400</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1300,8 +1392,14 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1436,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>34300</v>
+        <v>15700</v>
       </c>
       <c r="E26" s="3">
-        <v>42200</v>
+        <v>-1800</v>
       </c>
       <c r="F26" s="3">
-        <v>-208400</v>
+        <v>34000</v>
       </c>
       <c r="G26" s="3">
-        <v>-26000</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>10</v>
+        <v>41800</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-206500</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-25700</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M26" s="3">
         <v>-44000</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>34300</v>
+        <v>15700</v>
       </c>
       <c r="E27" s="3">
-        <v>42200</v>
+        <v>-1800</v>
       </c>
       <c r="F27" s="3">
-        <v>-219000</v>
+        <v>34000</v>
       </c>
       <c r="G27" s="3">
-        <v>-39600</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>10</v>
+        <v>41800</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-217000</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-39200</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M27" s="3">
         <v>-54200</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1568,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1612,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,84 +1700,102 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1400</v>
+        <v>-4800</v>
       </c>
       <c r="E32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>34300</v>
+        <v>15700</v>
       </c>
       <c r="E33" s="3">
-        <v>42200</v>
+        <v>-1800</v>
       </c>
       <c r="F33" s="3">
-        <v>-219000</v>
+        <v>34000</v>
       </c>
       <c r="G33" s="3">
-        <v>-39600</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>10</v>
+        <v>41800</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-217000</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-39200</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M33" s="3">
         <v>-54200</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1832,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>34300</v>
+        <v>15700</v>
       </c>
       <c r="E35" s="3">
-        <v>42200</v>
+        <v>-1800</v>
       </c>
       <c r="F35" s="3">
-        <v>-219000</v>
+        <v>34000</v>
       </c>
       <c r="G35" s="3">
-        <v>-39600</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>10</v>
+        <v>41800</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-217000</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-39200</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M35" s="3">
         <v>-54200</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,28 +1965,30 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1671300</v>
+        <v>1777800</v>
       </c>
       <c r="E41" s="3">
-        <v>1585100</v>
+        <v>1658400</v>
       </c>
       <c r="F41" s="3">
-        <v>1634100</v>
+        <v>1656200</v>
       </c>
       <c r="G41" s="3">
-        <v>604400</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>10</v>
+        <v>1570800</v>
+      </c>
+      <c r="H41" s="3">
+        <v>1619300</v>
+      </c>
+      <c r="I41" s="3">
+        <v>598900</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>10</v>
@@ -1831,28 +2005,34 @@
       <c r="N41" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>130400</v>
+        <v>118600</v>
       </c>
       <c r="E42" s="3">
-        <v>174600</v>
+        <v>156000</v>
       </c>
       <c r="F42" s="3">
-        <v>91300</v>
+        <v>129200</v>
       </c>
       <c r="G42" s="3">
-        <v>81100</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>10</v>
+        <v>173000</v>
+      </c>
+      <c r="H42" s="3">
+        <v>90500</v>
+      </c>
+      <c r="I42" s="3">
+        <v>80400</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>10</v>
@@ -1869,28 +2049,34 @@
       <c r="N42" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>61000</v>
+        <v>1700</v>
       </c>
       <c r="E43" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F43" s="3">
+        <v>60500</v>
+      </c>
+      <c r="G43" s="3">
         <v>1100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1700</v>
       </c>
-      <c r="G43" s="3">
-        <v>20000</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>10</v>
+      <c r="I43" s="3">
+        <v>19800</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>10</v>
@@ -1907,8 +2093,14 @@
       <c r="N43" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1945,28 +2137,34 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>46900</v>
+        <v>76000</v>
       </c>
       <c r="E45" s="3">
-        <v>88800</v>
+        <v>85100</v>
       </c>
       <c r="F45" s="3">
-        <v>38800</v>
+        <v>46500</v>
       </c>
       <c r="G45" s="3">
-        <v>22800</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>10</v>
+        <v>88000</v>
+      </c>
+      <c r="H45" s="3">
+        <v>38500</v>
+      </c>
+      <c r="I45" s="3">
+        <v>22600</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>10</v>
@@ -1983,28 +2181,34 @@
       <c r="N45" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1909600</v>
+        <v>1974100</v>
       </c>
       <c r="E46" s="3">
-        <v>1849600</v>
+        <v>1901100</v>
       </c>
       <c r="F46" s="3">
-        <v>1765900</v>
+        <v>1892400</v>
       </c>
       <c r="G46" s="3">
-        <v>728200</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>10</v>
+        <v>1832900</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1750000</v>
+      </c>
+      <c r="I46" s="3">
+        <v>721600</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>10</v>
@@ -2021,8 +2225,14 @@
       <c r="N46" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2059,28 +2269,34 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>99900</v>
+        <v>124100</v>
       </c>
       <c r="E48" s="3">
-        <v>78100</v>
+        <v>103900</v>
       </c>
       <c r="F48" s="3">
-        <v>62100</v>
+        <v>99000</v>
       </c>
       <c r="G48" s="3">
-        <v>55400</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>10</v>
+        <v>77400</v>
+      </c>
+      <c r="H48" s="3">
+        <v>61500</v>
+      </c>
+      <c r="I48" s="3">
+        <v>54900</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>10</v>
@@ -2097,8 +2313,14 @@
       <c r="N48" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2114,11 +2336,11 @@
       <c r="G49" s="3">
         <v>100</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>10</v>
+      <c r="H49" s="3">
+        <v>100</v>
+      </c>
+      <c r="I49" s="3">
+        <v>100</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>10</v>
@@ -2135,8 +2357,14 @@
       <c r="N49" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,8 +2445,14 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2226,14 +2466,14 @@
         <v>600</v>
       </c>
       <c r="G52" s="3">
+        <v>600</v>
+      </c>
+      <c r="H52" s="3">
+        <v>600</v>
+      </c>
+      <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>10</v>
       </c>
@@ -2249,8 +2489,14 @@
       <c r="N52" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,28 +2533,34 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2010200</v>
+        <v>2098800</v>
       </c>
       <c r="E54" s="3">
-        <v>1928400</v>
+        <v>2005700</v>
       </c>
       <c r="F54" s="3">
-        <v>1828600</v>
+        <v>1992100</v>
       </c>
       <c r="G54" s="3">
-        <v>783700</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>10</v>
+        <v>1911000</v>
+      </c>
+      <c r="H54" s="3">
+        <v>1812100</v>
+      </c>
+      <c r="I54" s="3">
+        <v>776700</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>10</v>
@@ -2325,8 +2577,14 @@
       <c r="N54" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,28 +2617,30 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7500</v>
+        <v>102100</v>
       </c>
       <c r="E57" s="3">
-        <v>69800</v>
+        <v>82100</v>
       </c>
       <c r="F57" s="3">
-        <v>70000</v>
+        <v>7400</v>
       </c>
       <c r="G57" s="3">
-        <v>14000</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>10</v>
+        <v>69100</v>
+      </c>
+      <c r="H57" s="3">
+        <v>69400</v>
+      </c>
+      <c r="I57" s="3">
+        <v>13900</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>10</v>
@@ -2395,8 +2657,14 @@
       <c r="N57" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2433,28 +2701,34 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>402800</v>
+        <v>310300</v>
       </c>
       <c r="E59" s="3">
-        <v>291700</v>
+        <v>327300</v>
       </c>
       <c r="F59" s="3">
-        <v>287900</v>
+        <v>399200</v>
       </c>
       <c r="G59" s="3">
-        <v>292800</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>10</v>
+        <v>289100</v>
+      </c>
+      <c r="H59" s="3">
+        <v>285400</v>
+      </c>
+      <c r="I59" s="3">
+        <v>290200</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>10</v>
@@ -2471,28 +2745,34 @@
       <c r="N59" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>410300</v>
+        <v>412500</v>
       </c>
       <c r="E60" s="3">
-        <v>361500</v>
+        <v>409400</v>
       </c>
       <c r="F60" s="3">
-        <v>358000</v>
+        <v>406600</v>
       </c>
       <c r="G60" s="3">
-        <v>306800</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>10</v>
+        <v>358200</v>
+      </c>
+      <c r="H60" s="3">
+        <v>354700</v>
+      </c>
+      <c r="I60" s="3">
+        <v>304000</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>10</v>
@@ -2509,8 +2789,14 @@
       <c r="N60" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2547,28 +2833,34 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>27000</v>
+        <v>24300</v>
       </c>
       <c r="E62" s="3">
-        <v>23300</v>
+        <v>23800</v>
       </c>
       <c r="F62" s="3">
-        <v>14500</v>
+        <v>26800</v>
       </c>
       <c r="G62" s="3">
-        <v>13800</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>10</v>
+        <v>23100</v>
+      </c>
+      <c r="H62" s="3">
+        <v>14400</v>
+      </c>
+      <c r="I62" s="3">
+        <v>13700</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>10</v>
@@ -2585,8 +2877,14 @@
       <c r="N62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,28 +3009,34 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>437300</v>
+        <v>436800</v>
       </c>
       <c r="E66" s="3">
-        <v>384800</v>
+        <v>433200</v>
       </c>
       <c r="F66" s="3">
-        <v>372400</v>
+        <v>433400</v>
       </c>
       <c r="G66" s="3">
-        <v>320600</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>10</v>
+        <v>381300</v>
+      </c>
+      <c r="H66" s="3">
+        <v>369100</v>
+      </c>
+      <c r="I66" s="3">
+        <v>317700</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>10</v>
@@ -2737,8 +3053,14 @@
       <c r="N66" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +3159,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2844,13 +3180,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>852200</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>844500</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2867,8 +3203,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,28 +3247,34 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-544200</v>
+        <v>-525400</v>
       </c>
       <c r="E72" s="3">
-        <v>-578600</v>
+        <v>-541100</v>
       </c>
       <c r="F72" s="3">
-        <v>-620700</v>
+        <v>-539300</v>
       </c>
       <c r="G72" s="3">
-        <v>-412300</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>10</v>
+        <v>-573300</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-615100</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-408600</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>10</v>
@@ -2943,8 +3291,14 @@
       <c r="N72" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,28 +3423,34 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1572900</v>
+        <v>1662100</v>
       </c>
       <c r="E76" s="3">
-        <v>1543600</v>
+        <v>1572500</v>
       </c>
       <c r="F76" s="3">
-        <v>1456200</v>
+        <v>1558700</v>
       </c>
       <c r="G76" s="3">
-        <v>-389000</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>10</v>
+        <v>1529600</v>
+      </c>
+      <c r="H76" s="3">
+        <v>1443100</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-385500</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>10</v>
@@ -3095,8 +3467,14 @@
       <c r="N76" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3511,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>34300</v>
+        <v>15700</v>
       </c>
       <c r="E81" s="3">
-        <v>42200</v>
+        <v>-1800</v>
       </c>
       <c r="F81" s="3">
-        <v>-219000</v>
+        <v>34000</v>
       </c>
       <c r="G81" s="3">
-        <v>-39600</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>10</v>
+        <v>41800</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-217000</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-39200</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K81" s="3">
+      <c r="K81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M81" s="3">
         <v>-54200</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3626,10 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3244,15 +3642,15 @@
       <c r="F83" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G83" s="3">
+      <c r="G83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I83" s="3">
         <v>2500</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>10</v>
       </c>
@@ -3268,8 +3666,14 @@
       <c r="N83" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,28 +3886,34 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>78800</v>
+        <v>27300</v>
       </c>
       <c r="E89" s="3">
-        <v>39800</v>
+        <v>42900</v>
       </c>
       <c r="F89" s="3">
-        <v>98900</v>
+        <v>78100</v>
       </c>
       <c r="G89" s="3">
-        <v>24400</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>10</v>
+        <v>39400</v>
+      </c>
+      <c r="H89" s="3">
+        <v>98000</v>
+      </c>
+      <c r="I89" s="3">
+        <v>24100</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>10</v>
@@ -3496,8 +3930,14 @@
       <c r="N89" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,8 +3952,10 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3526,14 +3968,14 @@
       <c r="F91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G91" s="3">
-        <v>-9100</v>
+      <c r="G91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>10</v>
+      <c r="I91" s="3">
+        <v>-9000</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>10</v>
@@ -3550,8 +3992,14 @@
       <c r="N91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,28 +4080,34 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>30000</v>
+        <v>21300</v>
       </c>
       <c r="E94" s="3">
-        <v>-94100</v>
+        <v>-35600</v>
       </c>
       <c r="F94" s="3">
-        <v>-13400</v>
+        <v>29800</v>
       </c>
       <c r="G94" s="3">
-        <v>-11300</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>10</v>
+        <v>-93200</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-11200</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>10</v>
@@ -3664,8 +4124,14 @@
       <c r="N94" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +4146,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +4186,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,29 +4318,35 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3200</v>
+        <v>-14200</v>
       </c>
       <c r="E100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F100" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G100" s="3">
         <v>-300</v>
       </c>
-      <c r="F100" s="3">
-        <v>946700</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>938200</v>
+      </c>
+      <c r="I100" s="3">
         <v>-1800</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>10</v>
       </c>
@@ -3870,29 +4362,35 @@
       <c r="N100" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-25800</v>
+        <v>85000</v>
       </c>
       <c r="E101" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="G101" s="3">
         <v>5600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-2500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>3900</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>10</v>
       </c>
@@ -3908,28 +4406,34 @@
       <c r="N101" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>86300</v>
+        <v>119400</v>
       </c>
       <c r="E102" s="3">
-        <v>-49000</v>
+        <v>2200</v>
       </c>
       <c r="F102" s="3">
-        <v>1029700</v>
+        <v>85500</v>
       </c>
       <c r="G102" s="3">
-        <v>15200</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>10</v>
+        <v>-48600</v>
+      </c>
+      <c r="H102" s="3">
+        <v>1020400</v>
+      </c>
+      <c r="I102" s="3">
+        <v>15100</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>10</v>
@@ -3944,6 +4448,12 @@
         <v>10</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BZ_QTR_FIN.xlsx
@@ -737,25 +737,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>162400</v>
+        <v>154800</v>
       </c>
       <c r="E8" s="3">
-        <v>166200</v>
+        <v>158400</v>
       </c>
       <c r="F8" s="3">
-        <v>159300</v>
+        <v>151800</v>
       </c>
       <c r="G8" s="3">
-        <v>177000</v>
+        <v>168700</v>
       </c>
       <c r="H8" s="3">
-        <v>170600</v>
+        <v>162600</v>
       </c>
       <c r="I8" s="3">
-        <v>115100</v>
+        <v>109800</v>
       </c>
       <c r="J8" s="3">
-        <v>94200</v>
+        <v>89800</v>
       </c>
       <c r="K8" s="3">
         <v>87000</v>
@@ -781,25 +781,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>25400</v>
+        <v>24300</v>
       </c>
       <c r="E9" s="3">
-        <v>25900</v>
+        <v>24700</v>
       </c>
       <c r="F9" s="3">
-        <v>21900</v>
+        <v>20900</v>
       </c>
       <c r="G9" s="3">
-        <v>22600</v>
+        <v>21600</v>
       </c>
       <c r="H9" s="3">
-        <v>20900</v>
+        <v>19900</v>
       </c>
       <c r="I9" s="3">
-        <v>15600</v>
+        <v>14900</v>
       </c>
       <c r="J9" s="3">
-        <v>11600</v>
+        <v>11000</v>
       </c>
       <c r="K9" s="3">
         <v>10200</v>
@@ -825,25 +825,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>137000</v>
+        <v>130600</v>
       </c>
       <c r="E10" s="3">
-        <v>140300</v>
+        <v>133700</v>
       </c>
       <c r="F10" s="3">
-        <v>137400</v>
+        <v>131000</v>
       </c>
       <c r="G10" s="3">
-        <v>154300</v>
+        <v>147100</v>
       </c>
       <c r="H10" s="3">
-        <v>149700</v>
+        <v>142700</v>
       </c>
       <c r="I10" s="3">
-        <v>99500</v>
+        <v>94900</v>
       </c>
       <c r="J10" s="3">
-        <v>82600</v>
+        <v>78800</v>
       </c>
       <c r="K10" s="3">
         <v>76800</v>
@@ -887,25 +887,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>44900</v>
+        <v>42800</v>
       </c>
       <c r="E12" s="3">
-        <v>42500</v>
+        <v>40500</v>
       </c>
       <c r="F12" s="3">
+        <v>27700</v>
+      </c>
+      <c r="G12" s="3">
         <v>29100</v>
       </c>
-      <c r="G12" s="3">
-        <v>30600</v>
-      </c>
       <c r="H12" s="3">
-        <v>36500</v>
+        <v>34800</v>
       </c>
       <c r="I12" s="3">
-        <v>23900</v>
+        <v>22800</v>
       </c>
       <c r="J12" s="3">
-        <v>22200</v>
+        <v>21200</v>
       </c>
       <c r="K12" s="3">
         <v>20600</v>
@@ -1078,22 +1078,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>151300</v>
+        <v>144200</v>
       </c>
       <c r="E17" s="3">
-        <v>166600</v>
+        <v>158800</v>
       </c>
       <c r="F17" s="3">
-        <v>122300</v>
+        <v>116600</v>
       </c>
       <c r="G17" s="3">
-        <v>131500</v>
+        <v>125400</v>
       </c>
       <c r="H17" s="3">
-        <v>378100</v>
+        <v>360400</v>
       </c>
       <c r="I17" s="3">
-        <v>141400</v>
+        <v>134800</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>10</v>
@@ -1122,22 +1122,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>11100</v>
+        <v>10600</v>
       </c>
       <c r="E18" s="3">
         <v>-500</v>
       </c>
       <c r="F18" s="3">
-        <v>37000</v>
+        <v>35300</v>
       </c>
       <c r="G18" s="3">
-        <v>45400</v>
+        <v>43300</v>
       </c>
       <c r="H18" s="3">
-        <v>-207500</v>
+        <v>-197800</v>
       </c>
       <c r="I18" s="3">
-        <v>-26300</v>
+        <v>-25100</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="E20" s="3">
         <v>500</v>
@@ -1196,10 +1196,10 @@
         <v>700</v>
       </c>
       <c r="H20" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I20" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>10</v>
@@ -1243,7 +1243,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="3">
-        <v>-23200</v>
+        <v>-22100</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>10</v>
@@ -1316,25 +1316,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>15900</v>
+        <v>15200</v>
       </c>
       <c r="E23" s="3">
         <v>100</v>
       </c>
       <c r="F23" s="3">
-        <v>38300</v>
+        <v>36500</v>
       </c>
       <c r="G23" s="3">
-        <v>46200</v>
+        <v>44000</v>
       </c>
       <c r="H23" s="3">
-        <v>-206500</v>
+        <v>-196800</v>
       </c>
       <c r="I23" s="3">
-        <v>-25700</v>
+        <v>-24500</v>
       </c>
       <c r="J23" s="3">
-        <v>-77300</v>
+        <v>-73700</v>
       </c>
       <c r="K23" s="3">
         <v>5000</v>
@@ -1363,13 +1363,13 @@
         <v>200</v>
       </c>
       <c r="E24" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="F24" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="G24" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>15700</v>
+        <v>14900</v>
       </c>
       <c r="E26" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="F26" s="3">
-        <v>34000</v>
+        <v>32400</v>
       </c>
       <c r="G26" s="3">
-        <v>41800</v>
+        <v>39800</v>
       </c>
       <c r="H26" s="3">
-        <v>-206500</v>
+        <v>-196800</v>
       </c>
       <c r="I26" s="3">
-        <v>-25700</v>
+        <v>-24500</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>10</v>
@@ -1492,22 +1492,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>15700</v>
+        <v>14900</v>
       </c>
       <c r="E27" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="F27" s="3">
-        <v>34000</v>
+        <v>32400</v>
       </c>
       <c r="G27" s="3">
-        <v>41800</v>
+        <v>39800</v>
       </c>
       <c r="H27" s="3">
-        <v>-217000</v>
+        <v>-206800</v>
       </c>
       <c r="I27" s="3">
-        <v>-39200</v>
+        <v>-37400</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>10</v>
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4800</v>
+        <v>-4500</v>
       </c>
       <c r="E32" s="3">
         <v>-500</v>
@@ -1724,10 +1724,10 @@
         <v>-700</v>
       </c>
       <c r="H32" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="I32" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>10</v>
@@ -1756,22 +1756,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>15700</v>
+        <v>14900</v>
       </c>
       <c r="E33" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="F33" s="3">
-        <v>34000</v>
+        <v>32400</v>
       </c>
       <c r="G33" s="3">
-        <v>41800</v>
+        <v>39800</v>
       </c>
       <c r="H33" s="3">
-        <v>-217000</v>
+        <v>-206800</v>
       </c>
       <c r="I33" s="3">
-        <v>-39200</v>
+        <v>-37400</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>10</v>
@@ -1844,22 +1844,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>15700</v>
+        <v>14900</v>
       </c>
       <c r="E35" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="F35" s="3">
-        <v>34000</v>
+        <v>32400</v>
       </c>
       <c r="G35" s="3">
-        <v>41800</v>
+        <v>39800</v>
       </c>
       <c r="H35" s="3">
-        <v>-217000</v>
+        <v>-206800</v>
       </c>
       <c r="I35" s="3">
-        <v>-39200</v>
+        <v>-37400</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>10</v>
@@ -1973,22 +1973,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1777800</v>
+        <v>1694600</v>
       </c>
       <c r="E41" s="3">
-        <v>1658400</v>
+        <v>1580900</v>
       </c>
       <c r="F41" s="3">
-        <v>1656200</v>
+        <v>1578800</v>
       </c>
       <c r="G41" s="3">
-        <v>1570800</v>
+        <v>1497300</v>
       </c>
       <c r="H41" s="3">
-        <v>1619300</v>
+        <v>1543600</v>
       </c>
       <c r="I41" s="3">
-        <v>598900</v>
+        <v>570900</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>10</v>
@@ -2017,22 +2017,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>118600</v>
+        <v>113100</v>
       </c>
       <c r="E42" s="3">
-        <v>156000</v>
+        <v>148700</v>
       </c>
       <c r="F42" s="3">
-        <v>129200</v>
+        <v>123200</v>
       </c>
       <c r="G42" s="3">
-        <v>173000</v>
+        <v>164900</v>
       </c>
       <c r="H42" s="3">
-        <v>90500</v>
+        <v>86300</v>
       </c>
       <c r="I42" s="3">
-        <v>80400</v>
+        <v>76600</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>10</v>
@@ -2061,22 +2061,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="E43" s="3">
         <v>1500</v>
       </c>
       <c r="F43" s="3">
-        <v>60500</v>
+        <v>57600</v>
       </c>
       <c r="G43" s="3">
         <v>1100</v>
       </c>
       <c r="H43" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="I43" s="3">
-        <v>19800</v>
+        <v>18900</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>10</v>
@@ -2149,22 +2149,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>76000</v>
+        <v>72500</v>
       </c>
       <c r="E45" s="3">
-        <v>85100</v>
+        <v>81200</v>
       </c>
       <c r="F45" s="3">
-        <v>46500</v>
+        <v>44300</v>
       </c>
       <c r="G45" s="3">
-        <v>88000</v>
+        <v>83900</v>
       </c>
       <c r="H45" s="3">
-        <v>38500</v>
+        <v>36700</v>
       </c>
       <c r="I45" s="3">
-        <v>22600</v>
+        <v>21500</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>10</v>
@@ -2193,22 +2193,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1974100</v>
+        <v>1881800</v>
       </c>
       <c r="E46" s="3">
-        <v>1901100</v>
+        <v>1812200</v>
       </c>
       <c r="F46" s="3">
-        <v>1892400</v>
+        <v>1803900</v>
       </c>
       <c r="G46" s="3">
-        <v>1832900</v>
+        <v>1747200</v>
       </c>
       <c r="H46" s="3">
-        <v>1750000</v>
+        <v>1668100</v>
       </c>
       <c r="I46" s="3">
-        <v>721600</v>
+        <v>687900</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>10</v>
@@ -2281,22 +2281,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>124100</v>
+        <v>118300</v>
       </c>
       <c r="E48" s="3">
-        <v>103900</v>
+        <v>99100</v>
       </c>
       <c r="F48" s="3">
-        <v>99000</v>
+        <v>94400</v>
       </c>
       <c r="G48" s="3">
-        <v>77400</v>
+        <v>73800</v>
       </c>
       <c r="H48" s="3">
-        <v>61500</v>
+        <v>58600</v>
       </c>
       <c r="I48" s="3">
-        <v>54900</v>
+        <v>52300</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>10</v>
@@ -2545,22 +2545,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2098800</v>
+        <v>2000700</v>
       </c>
       <c r="E54" s="3">
-        <v>2005700</v>
+        <v>1911900</v>
       </c>
       <c r="F54" s="3">
-        <v>1992100</v>
+        <v>1898900</v>
       </c>
       <c r="G54" s="3">
-        <v>1911000</v>
+        <v>1821600</v>
       </c>
       <c r="H54" s="3">
-        <v>1812100</v>
+        <v>1727400</v>
       </c>
       <c r="I54" s="3">
-        <v>776700</v>
+        <v>740300</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>10</v>
@@ -2625,22 +2625,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>102100</v>
+        <v>97400</v>
       </c>
       <c r="E57" s="3">
-        <v>82100</v>
+        <v>78300</v>
       </c>
       <c r="F57" s="3">
-        <v>7400</v>
+        <v>7000</v>
       </c>
       <c r="G57" s="3">
-        <v>69100</v>
+        <v>65900</v>
       </c>
       <c r="H57" s="3">
-        <v>69400</v>
+        <v>66100</v>
       </c>
       <c r="I57" s="3">
-        <v>13900</v>
+        <v>13200</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>10</v>
@@ -2713,22 +2713,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>310300</v>
+        <v>295800</v>
       </c>
       <c r="E59" s="3">
-        <v>327300</v>
+        <v>312000</v>
       </c>
       <c r="F59" s="3">
-        <v>399200</v>
+        <v>380500</v>
       </c>
       <c r="G59" s="3">
-        <v>289100</v>
+        <v>275600</v>
       </c>
       <c r="H59" s="3">
-        <v>285400</v>
+        <v>272000</v>
       </c>
       <c r="I59" s="3">
-        <v>290200</v>
+        <v>276600</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>10</v>
@@ -2757,22 +2757,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>412500</v>
+        <v>393200</v>
       </c>
       <c r="E60" s="3">
-        <v>409400</v>
+        <v>390200</v>
       </c>
       <c r="F60" s="3">
-        <v>406600</v>
+        <v>387600</v>
       </c>
       <c r="G60" s="3">
-        <v>358200</v>
+        <v>341500</v>
       </c>
       <c r="H60" s="3">
-        <v>354700</v>
+        <v>338100</v>
       </c>
       <c r="I60" s="3">
-        <v>304000</v>
+        <v>289800</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>10</v>
@@ -2845,22 +2845,22 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>24300</v>
+        <v>23200</v>
       </c>
       <c r="E62" s="3">
-        <v>23800</v>
+        <v>22700</v>
       </c>
       <c r="F62" s="3">
-        <v>26800</v>
+        <v>25500</v>
       </c>
       <c r="G62" s="3">
-        <v>23100</v>
+        <v>22000</v>
       </c>
       <c r="H62" s="3">
-        <v>14400</v>
+        <v>13700</v>
       </c>
       <c r="I62" s="3">
-        <v>13700</v>
+        <v>13000</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>10</v>
@@ -3021,22 +3021,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>436800</v>
+        <v>416300</v>
       </c>
       <c r="E66" s="3">
-        <v>433200</v>
+        <v>412900</v>
       </c>
       <c r="F66" s="3">
-        <v>433400</v>
+        <v>413100</v>
       </c>
       <c r="G66" s="3">
-        <v>381300</v>
+        <v>363500</v>
       </c>
       <c r="H66" s="3">
-        <v>369100</v>
+        <v>351800</v>
       </c>
       <c r="I66" s="3">
-        <v>317700</v>
+        <v>302800</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>10</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>844500</v>
+        <v>805000</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -3259,22 +3259,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-525400</v>
+        <v>-500800</v>
       </c>
       <c r="E72" s="3">
-        <v>-541100</v>
+        <v>-515800</v>
       </c>
       <c r="F72" s="3">
-        <v>-539300</v>
+        <v>-514100</v>
       </c>
       <c r="G72" s="3">
-        <v>-573300</v>
+        <v>-546500</v>
       </c>
       <c r="H72" s="3">
-        <v>-615100</v>
+        <v>-586400</v>
       </c>
       <c r="I72" s="3">
-        <v>-408600</v>
+        <v>-389500</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>10</v>
@@ -3435,22 +3435,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1662100</v>
+        <v>1584300</v>
       </c>
       <c r="E76" s="3">
-        <v>1572500</v>
+        <v>1498900</v>
       </c>
       <c r="F76" s="3">
-        <v>1558700</v>
+        <v>1485800</v>
       </c>
       <c r="G76" s="3">
-        <v>1529600</v>
+        <v>1458100</v>
       </c>
       <c r="H76" s="3">
-        <v>1443100</v>
+        <v>1375600</v>
       </c>
       <c r="I76" s="3">
-        <v>-385500</v>
+        <v>-367500</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>10</v>
@@ -3572,22 +3572,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>15700</v>
+        <v>14900</v>
       </c>
       <c r="E81" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="F81" s="3">
-        <v>34000</v>
+        <v>32400</v>
       </c>
       <c r="G81" s="3">
-        <v>41800</v>
+        <v>39800</v>
       </c>
       <c r="H81" s="3">
-        <v>-217000</v>
+        <v>-206800</v>
       </c>
       <c r="I81" s="3">
-        <v>-39200</v>
+        <v>-37400</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>10</v>
@@ -3649,7 +3649,7 @@
         <v>10</v>
       </c>
       <c r="I83" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>10</v>
@@ -3898,22 +3898,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>27300</v>
+        <v>26000</v>
       </c>
       <c r="E89" s="3">
-        <v>42900</v>
+        <v>40900</v>
       </c>
       <c r="F89" s="3">
-        <v>78100</v>
+        <v>74500</v>
       </c>
       <c r="G89" s="3">
-        <v>39400</v>
+        <v>37600</v>
       </c>
       <c r="H89" s="3">
-        <v>98000</v>
+        <v>93400</v>
       </c>
       <c r="I89" s="3">
-        <v>24100</v>
+        <v>23000</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>10</v>
@@ -3975,7 +3975,7 @@
         <v>10</v>
       </c>
       <c r="I91" s="3">
-        <v>-9000</v>
+        <v>-8600</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>10</v>
@@ -4092,22 +4092,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>21300</v>
+        <v>20300</v>
       </c>
       <c r="E94" s="3">
-        <v>-35600</v>
+        <v>-33900</v>
       </c>
       <c r="F94" s="3">
-        <v>29800</v>
+        <v>28400</v>
       </c>
       <c r="G94" s="3">
-        <v>-93200</v>
+        <v>-88900</v>
       </c>
       <c r="H94" s="3">
-        <v>-13300</v>
+        <v>-12600</v>
       </c>
       <c r="I94" s="3">
-        <v>-11200</v>
+        <v>-10600</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>10</v>
@@ -4330,22 +4330,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-14200</v>
+        <v>-13500</v>
       </c>
       <c r="E100" s="3">
         <v>1300</v>
       </c>
       <c r="F100" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="G100" s="3">
         <v>-300</v>
       </c>
       <c r="H100" s="3">
-        <v>938200</v>
+        <v>894300</v>
       </c>
       <c r="I100" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>10</v>
@@ -4374,22 +4374,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>85000</v>
+        <v>81000</v>
       </c>
       <c r="E101" s="3">
-        <v>-6500</v>
+        <v>-6200</v>
       </c>
       <c r="F101" s="3">
-        <v>-25500</v>
+        <v>-24300</v>
       </c>
       <c r="G101" s="3">
-        <v>5600</v>
+        <v>5300</v>
       </c>
       <c r="H101" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="I101" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>10</v>
@@ -4418,22 +4418,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>119400</v>
+        <v>113800</v>
       </c>
       <c r="E102" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="F102" s="3">
-        <v>85500</v>
+        <v>81500</v>
       </c>
       <c r="G102" s="3">
-        <v>-48600</v>
+        <v>-46300</v>
       </c>
       <c r="H102" s="3">
-        <v>1020400</v>
+        <v>972700</v>
       </c>
       <c r="I102" s="3">
-        <v>15100</v>
+        <v>14300</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>10</v>

--- a/AAII_Financials/Quarterly/BZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="92">
   <si>
     <t>BZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>154800</v>
+        <v>169300</v>
       </c>
       <c r="E8" s="3">
-        <v>158400</v>
+        <v>323200</v>
       </c>
       <c r="F8" s="3">
-        <v>151800</v>
+        <v>163400</v>
       </c>
       <c r="G8" s="3">
-        <v>168700</v>
+        <v>156600</v>
       </c>
       <c r="H8" s="3">
-        <v>162600</v>
+        <v>174000</v>
       </c>
       <c r="I8" s="3">
-        <v>109800</v>
+        <v>167800</v>
       </c>
       <c r="J8" s="3">
+        <v>113200</v>
+      </c>
+      <c r="K8" s="3">
         <v>89800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>87000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>62800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>44600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>46800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>44400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>24300</v>
+        <v>28900</v>
       </c>
       <c r="E9" s="3">
-        <v>24700</v>
+        <v>50500</v>
       </c>
       <c r="F9" s="3">
-        <v>20900</v>
+        <v>25500</v>
       </c>
       <c r="G9" s="3">
-        <v>21600</v>
+        <v>21500</v>
       </c>
       <c r="H9" s="3">
-        <v>19900</v>
+        <v>22200</v>
       </c>
       <c r="I9" s="3">
-        <v>14900</v>
+        <v>20600</v>
       </c>
       <c r="J9" s="3">
+        <v>15300</v>
+      </c>
+      <c r="K9" s="3">
         <v>11000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>130600</v>
+        <v>140400</v>
       </c>
       <c r="E10" s="3">
-        <v>133700</v>
+        <v>272700</v>
       </c>
       <c r="F10" s="3">
-        <v>131000</v>
+        <v>138000</v>
       </c>
       <c r="G10" s="3">
-        <v>147100</v>
+        <v>135100</v>
       </c>
       <c r="H10" s="3">
-        <v>142700</v>
+        <v>151800</v>
       </c>
       <c r="I10" s="3">
-        <v>94900</v>
+        <v>147200</v>
       </c>
       <c r="J10" s="3">
+        <v>97900</v>
+      </c>
+      <c r="K10" s="3">
         <v>78800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>76800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>54900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>38600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>40600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>38500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>32300</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +894,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>42800</v>
+        <v>41700</v>
       </c>
       <c r="E12" s="3">
-        <v>40500</v>
+        <v>85900</v>
       </c>
       <c r="F12" s="3">
-        <v>27700</v>
+        <v>41800</v>
       </c>
       <c r="G12" s="3">
-        <v>29100</v>
+        <v>28600</v>
       </c>
       <c r="H12" s="3">
-        <v>34800</v>
+        <v>30100</v>
       </c>
       <c r="I12" s="3">
-        <v>22800</v>
+        <v>35900</v>
       </c>
       <c r="J12" s="3">
+        <v>23500</v>
+      </c>
+      <c r="K12" s="3">
         <v>21200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>20600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>17200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>16500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>15600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>14100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,32 +1009,35 @@
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="3">
         <v>-300</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="3">
         <v>-200</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,31 +1098,32 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>144200</v>
+        <v>149500</v>
       </c>
       <c r="E17" s="3">
-        <v>158800</v>
+        <v>312700</v>
       </c>
       <c r="F17" s="3">
-        <v>116600</v>
+        <v>163900</v>
       </c>
       <c r="G17" s="3">
-        <v>125400</v>
+        <v>120300</v>
       </c>
       <c r="H17" s="3">
-        <v>360400</v>
+        <v>129300</v>
       </c>
       <c r="I17" s="3">
-        <v>134800</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>10</v>
+        <v>371800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>139100</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>10</v>
@@ -1104,43 +1131,46 @@
       <c r="L17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N17" s="3">
         <v>88900</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>10600</v>
+        <v>19800</v>
       </c>
       <c r="E18" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
-        <v>35300</v>
-      </c>
       <c r="G18" s="3">
-        <v>43300</v>
+        <v>36400</v>
       </c>
       <c r="H18" s="3">
-        <v>-197800</v>
+        <v>44700</v>
       </c>
       <c r="I18" s="3">
-        <v>-25100</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>10</v>
+        <v>-204000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-25900</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>10</v>
@@ -1148,20 +1178,23 @@
       <c r="L18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N18" s="3">
         <v>-44300</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,31 +1211,32 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>4500</v>
+        <v>14600</v>
       </c>
       <c r="E20" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>900</v>
       </c>
-      <c r="I20" s="3">
-        <v>500</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>10</v>
+      <c r="J20" s="3">
+        <v>600</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>10</v>
@@ -1210,20 +1244,23 @@
       <c r="L20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1242,11 +1279,11 @@
       <c r="H21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="3">
-        <v>-22100</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>10</v>
+      <c r="I21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-22800</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>10</v>
@@ -1254,20 +1291,23 @@
       <c r="L21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N21" s="3">
         <v>-43200</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,69 +1350,75 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>15200</v>
+        <v>34400</v>
       </c>
       <c r="E23" s="3">
+        <v>13600</v>
+      </c>
+      <c r="F23" s="3">
         <v>100</v>
       </c>
-      <c r="F23" s="3">
-        <v>36500</v>
-      </c>
       <c r="G23" s="3">
-        <v>44000</v>
+        <v>37700</v>
       </c>
       <c r="H23" s="3">
-        <v>-196800</v>
+        <v>45400</v>
       </c>
       <c r="I23" s="3">
-        <v>-24500</v>
+        <v>-203100</v>
       </c>
       <c r="J23" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-73700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-24700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-44000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-17900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-9800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>200</v>
+        <v>4000</v>
       </c>
       <c r="E24" s="3">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="F24" s="3">
-        <v>4100</v>
+        <v>1800</v>
       </c>
       <c r="G24" s="3">
         <v>4200</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>4300</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,31 +1491,34 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>14900</v>
+        <v>30400</v>
       </c>
       <c r="E26" s="3">
+        <v>11500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1700</v>
       </c>
-      <c r="F26" s="3">
-        <v>32400</v>
-      </c>
       <c r="G26" s="3">
-        <v>39800</v>
+        <v>33500</v>
       </c>
       <c r="H26" s="3">
-        <v>-196800</v>
+        <v>41100</v>
       </c>
       <c r="I26" s="3">
-        <v>-24500</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>10</v>
+        <v>-203100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-25300</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>10</v>
@@ -1474,43 +1526,46 @@
       <c r="L26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N26" s="3">
         <v>-44000</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>14900</v>
+        <v>30400</v>
       </c>
       <c r="E27" s="3">
+        <v>11500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1700</v>
       </c>
-      <c r="F27" s="3">
-        <v>32400</v>
-      </c>
       <c r="G27" s="3">
-        <v>39800</v>
+        <v>33500</v>
       </c>
       <c r="H27" s="3">
-        <v>-206800</v>
+        <v>41100</v>
       </c>
       <c r="I27" s="3">
-        <v>-37400</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>10</v>
+        <v>-213400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-38600</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>10</v>
@@ -1518,20 +1573,23 @@
       <c r="L27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N27" s="3">
         <v>-54200</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,31 +1773,34 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4500</v>
+        <v>-14600</v>
       </c>
       <c r="E32" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-900</v>
       </c>
-      <c r="I32" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>10</v>
+      <c r="J32" s="3">
+        <v>-600</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>10</v>
@@ -1738,43 +1808,46 @@
       <c r="L32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>14900</v>
+        <v>30400</v>
       </c>
       <c r="E33" s="3">
+        <v>11500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1700</v>
       </c>
-      <c r="F33" s="3">
-        <v>32400</v>
-      </c>
       <c r="G33" s="3">
-        <v>39800</v>
+        <v>33500</v>
       </c>
       <c r="H33" s="3">
-        <v>-206800</v>
+        <v>41100</v>
       </c>
       <c r="I33" s="3">
-        <v>-37400</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>10</v>
+        <v>-213400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-38600</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>10</v>
@@ -1782,20 +1855,23 @@
       <c r="L33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N33" s="3">
         <v>-54200</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,31 +1914,34 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>14900</v>
+        <v>30400</v>
       </c>
       <c r="E35" s="3">
+        <v>11500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1700</v>
       </c>
-      <c r="F35" s="3">
-        <v>32400</v>
-      </c>
       <c r="G35" s="3">
-        <v>39800</v>
+        <v>33500</v>
       </c>
       <c r="H35" s="3">
-        <v>-206800</v>
+        <v>41100</v>
       </c>
       <c r="I35" s="3">
-        <v>-37400</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>10</v>
+        <v>-213400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-38600</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>10</v>
@@ -1870,69 +1949,75 @@
       <c r="L35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N35" s="3">
         <v>-54200</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,31 +2053,32 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1694600</v>
+        <v>1602600</v>
       </c>
       <c r="E41" s="3">
-        <v>1580900</v>
+        <v>1748400</v>
       </c>
       <c r="F41" s="3">
-        <v>1578800</v>
+        <v>1631000</v>
       </c>
       <c r="G41" s="3">
-        <v>1497300</v>
+        <v>1628900</v>
       </c>
       <c r="H41" s="3">
-        <v>1543600</v>
+        <v>1544800</v>
       </c>
       <c r="I41" s="3">
-        <v>570900</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>10</v>
+        <v>1592600</v>
+      </c>
+      <c r="J41" s="3">
+        <v>589000</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>10</v>
@@ -2011,31 +2098,34 @@
       <c r="P41" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>113100</v>
+        <v>397000</v>
       </c>
       <c r="E42" s="3">
-        <v>148700</v>
+        <v>116700</v>
       </c>
       <c r="F42" s="3">
-        <v>123200</v>
+        <v>153500</v>
       </c>
       <c r="G42" s="3">
-        <v>164900</v>
+        <v>127100</v>
       </c>
       <c r="H42" s="3">
-        <v>86300</v>
+        <v>170200</v>
       </c>
       <c r="I42" s="3">
-        <v>76600</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>10</v>
+        <v>89000</v>
+      </c>
+      <c r="J42" s="3">
+        <v>79000</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>10</v>
@@ -2055,31 +2145,34 @@
       <c r="P42" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1600</v>
+        <v>2100</v>
       </c>
       <c r="E43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F43" s="3">
         <v>1500</v>
       </c>
-      <c r="F43" s="3">
-        <v>57600</v>
-      </c>
       <c r="G43" s="3">
+        <v>59500</v>
+      </c>
+      <c r="H43" s="3">
         <v>1100</v>
       </c>
-      <c r="H43" s="3">
-        <v>1600</v>
-      </c>
       <c r="I43" s="3">
-        <v>18900</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>10</v>
+        <v>1700</v>
+      </c>
+      <c r="J43" s="3">
+        <v>19500</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>10</v>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,31 +2239,34 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>72500</v>
+        <v>78900</v>
       </c>
       <c r="E45" s="3">
-        <v>81200</v>
+        <v>74800</v>
       </c>
       <c r="F45" s="3">
-        <v>44300</v>
+        <v>83700</v>
       </c>
       <c r="G45" s="3">
-        <v>83900</v>
+        <v>45700</v>
       </c>
       <c r="H45" s="3">
-        <v>36700</v>
+        <v>86600</v>
       </c>
       <c r="I45" s="3">
-        <v>21500</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>10</v>
+        <v>37800</v>
+      </c>
+      <c r="J45" s="3">
+        <v>22200</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>10</v>
@@ -2187,31 +2286,34 @@
       <c r="P45" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1881800</v>
+        <v>2080600</v>
       </c>
       <c r="E46" s="3">
-        <v>1812200</v>
+        <v>1941500</v>
       </c>
       <c r="F46" s="3">
-        <v>1803900</v>
+        <v>1869800</v>
       </c>
       <c r="G46" s="3">
-        <v>1747200</v>
+        <v>1861200</v>
       </c>
       <c r="H46" s="3">
-        <v>1668100</v>
+        <v>1802600</v>
       </c>
       <c r="I46" s="3">
-        <v>687900</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>10</v>
+        <v>1721100</v>
+      </c>
+      <c r="J46" s="3">
+        <v>709700</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>10</v>
@@ -2231,8 +2333,11 @@
       <c r="P46" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,31 +2380,34 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>118300</v>
+        <v>123700</v>
       </c>
       <c r="E48" s="3">
-        <v>99100</v>
+        <v>122000</v>
       </c>
       <c r="F48" s="3">
-        <v>94400</v>
+        <v>102200</v>
       </c>
       <c r="G48" s="3">
-        <v>73800</v>
+        <v>97400</v>
       </c>
       <c r="H48" s="3">
-        <v>58600</v>
+        <v>76200</v>
       </c>
       <c r="I48" s="3">
-        <v>52300</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>10</v>
+        <v>60500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>53900</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>10</v>
@@ -2319,8 +2427,11 @@
       <c r="P48" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2342,8 +2453,8 @@
       <c r="I49" s="3">
         <v>100</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>10</v>
+      <c r="J49" s="3">
+        <v>100</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>10</v>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2472,11 +2592,11 @@
         <v>600</v>
       </c>
       <c r="I52" s="3">
+        <v>600</v>
+      </c>
+      <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>10</v>
       </c>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,31 +2662,34 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2000700</v>
+        <v>2204900</v>
       </c>
       <c r="E54" s="3">
-        <v>1911900</v>
+        <v>2064200</v>
       </c>
       <c r="F54" s="3">
-        <v>1898900</v>
+        <v>1972600</v>
       </c>
       <c r="G54" s="3">
-        <v>1821600</v>
+        <v>1959200</v>
       </c>
       <c r="H54" s="3">
-        <v>1727400</v>
+        <v>1879500</v>
       </c>
       <c r="I54" s="3">
-        <v>740300</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>10</v>
+        <v>1782200</v>
+      </c>
+      <c r="J54" s="3">
+        <v>763800</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>10</v>
@@ -2583,8 +2709,11 @@
       <c r="P54" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,31 +2749,32 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>97400</v>
+        <v>99200</v>
       </c>
       <c r="E57" s="3">
-        <v>78300</v>
+        <v>100400</v>
       </c>
       <c r="F57" s="3">
-        <v>7000</v>
+        <v>80800</v>
       </c>
       <c r="G57" s="3">
-        <v>65900</v>
+        <v>7300</v>
       </c>
       <c r="H57" s="3">
-        <v>66100</v>
+        <v>68000</v>
       </c>
       <c r="I57" s="3">
-        <v>13200</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>10</v>
+        <v>68200</v>
+      </c>
+      <c r="J57" s="3">
+        <v>13600</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>10</v>
@@ -2663,8 +2794,11 @@
       <c r="P57" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,31 +2841,34 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>295800</v>
+        <v>314400</v>
       </c>
       <c r="E59" s="3">
-        <v>312000</v>
+        <v>305200</v>
       </c>
       <c r="F59" s="3">
-        <v>380500</v>
+        <v>321900</v>
       </c>
       <c r="G59" s="3">
-        <v>275600</v>
+        <v>392600</v>
       </c>
       <c r="H59" s="3">
-        <v>272000</v>
+        <v>284300</v>
       </c>
       <c r="I59" s="3">
-        <v>276600</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>10</v>
+        <v>280600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>285400</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>10</v>
@@ -2751,31 +2888,34 @@
       <c r="P59" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>393200</v>
+        <v>413600</v>
       </c>
       <c r="E60" s="3">
-        <v>390200</v>
+        <v>405700</v>
       </c>
       <c r="F60" s="3">
-        <v>387600</v>
+        <v>402600</v>
       </c>
       <c r="G60" s="3">
-        <v>341500</v>
+        <v>399900</v>
       </c>
       <c r="H60" s="3">
-        <v>338100</v>
+        <v>352300</v>
       </c>
       <c r="I60" s="3">
-        <v>289800</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>10</v>
+        <v>348900</v>
+      </c>
+      <c r="J60" s="3">
+        <v>299000</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>10</v>
@@ -2795,8 +2935,11 @@
       <c r="P60" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,31 +2982,34 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>23200</v>
+        <v>23500</v>
       </c>
       <c r="E62" s="3">
+        <v>23900</v>
+      </c>
+      <c r="F62" s="3">
+        <v>23400</v>
+      </c>
+      <c r="G62" s="3">
+        <v>26300</v>
+      </c>
+      <c r="H62" s="3">
         <v>22700</v>
       </c>
-      <c r="F62" s="3">
-        <v>25500</v>
-      </c>
-      <c r="G62" s="3">
-        <v>22000</v>
-      </c>
-      <c r="H62" s="3">
-        <v>13700</v>
-      </c>
       <c r="I62" s="3">
-        <v>13000</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>10</v>
+        <v>14100</v>
+      </c>
+      <c r="J62" s="3">
+        <v>13400</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>10</v>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,31 +3170,34 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>416300</v>
+        <v>437100</v>
       </c>
       <c r="E66" s="3">
-        <v>412900</v>
+        <v>429500</v>
       </c>
       <c r="F66" s="3">
-        <v>413100</v>
+        <v>426100</v>
       </c>
       <c r="G66" s="3">
-        <v>363500</v>
+        <v>426200</v>
       </c>
       <c r="H66" s="3">
-        <v>351800</v>
+        <v>375100</v>
       </c>
       <c r="I66" s="3">
-        <v>302800</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>10</v>
+        <v>363000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>312400</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>10</v>
@@ -3059,8 +3217,11 @@
       <c r="P66" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3186,10 +3354,10 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>805000</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>830500</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,31 +3424,34 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-500800</v>
+        <v>-488500</v>
       </c>
       <c r="E72" s="3">
-        <v>-515800</v>
+        <v>-516700</v>
       </c>
       <c r="F72" s="3">
-        <v>-514100</v>
+        <v>-532200</v>
       </c>
       <c r="G72" s="3">
-        <v>-546500</v>
+        <v>-530400</v>
       </c>
       <c r="H72" s="3">
-        <v>-586400</v>
+        <v>-563900</v>
       </c>
       <c r="I72" s="3">
-        <v>-389500</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>10</v>
+        <v>-605000</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-401900</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>10</v>
@@ -3297,8 +3471,11 @@
       <c r="P72" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,31 +3612,34 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1584300</v>
+        <v>1767800</v>
       </c>
       <c r="E76" s="3">
-        <v>1498900</v>
+        <v>1634600</v>
       </c>
       <c r="F76" s="3">
-        <v>1485800</v>
+        <v>1546500</v>
       </c>
       <c r="G76" s="3">
-        <v>1458100</v>
+        <v>1533000</v>
       </c>
       <c r="H76" s="3">
-        <v>1375600</v>
+        <v>1504400</v>
       </c>
       <c r="I76" s="3">
-        <v>-367500</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>10</v>
+        <v>1419200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-379100</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>10</v>
@@ -3473,8 +3659,11 @@
       <c r="P76" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,80 +3706,86 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>14900</v>
+        <v>30400</v>
       </c>
       <c r="E81" s="3">
+        <v>11500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1700</v>
       </c>
-      <c r="F81" s="3">
-        <v>32400</v>
-      </c>
       <c r="G81" s="3">
-        <v>39800</v>
+        <v>33500</v>
       </c>
       <c r="H81" s="3">
-        <v>-206800</v>
+        <v>41100</v>
       </c>
       <c r="I81" s="3">
-        <v>-37400</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>10</v>
+        <v>-213400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-38600</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>10</v>
@@ -3598,20 +3793,23 @@
       <c r="L81" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N81" s="3">
         <v>-54200</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3648,11 +3847,11 @@
       <c r="H83" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I83" s="3">
-        <v>2400</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>10</v>
+      <c r="I83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J83" s="3">
+        <v>2500</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>10</v>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,31 +4106,34 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>26000</v>
+        <v>52600</v>
       </c>
       <c r="E89" s="3">
-        <v>40900</v>
+        <v>69100</v>
       </c>
       <c r="F89" s="3">
-        <v>74500</v>
+        <v>42200</v>
       </c>
       <c r="G89" s="3">
-        <v>37600</v>
+        <v>76800</v>
       </c>
       <c r="H89" s="3">
-        <v>93400</v>
+        <v>38800</v>
       </c>
       <c r="I89" s="3">
-        <v>23000</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>10</v>
+        <v>96400</v>
+      </c>
+      <c r="J89" s="3">
+        <v>23700</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>10</v>
@@ -3936,8 +4153,11 @@
       <c r="P89" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3974,11 +4195,11 @@
       <c r="H91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I91" s="3">
-        <v>-8600</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>10</v>
+      <c r="I91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-8800</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>10</v>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,31 +4313,34 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>20300</v>
+        <v>-286300</v>
       </c>
       <c r="E94" s="3">
-        <v>-33900</v>
+        <v>-14100</v>
       </c>
       <c r="F94" s="3">
-        <v>28400</v>
+        <v>-35000</v>
       </c>
       <c r="G94" s="3">
-        <v>-88900</v>
+        <v>29300</v>
       </c>
       <c r="H94" s="3">
-        <v>-12600</v>
+        <v>-91700</v>
       </c>
       <c r="I94" s="3">
-        <v>-10600</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>10</v>
+        <v>-13100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-11000</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>10</v>
@@ -4130,8 +4360,11 @@
       <c r="P94" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,31 +4567,34 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-13500</v>
+        <v>6700</v>
       </c>
       <c r="E100" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="F100" s="3">
         <v>1300</v>
       </c>
-      <c r="F100" s="3">
-        <v>3000</v>
-      </c>
       <c r="G100" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H100" s="3">
         <v>-300</v>
       </c>
-      <c r="H100" s="3">
-        <v>894300</v>
-      </c>
       <c r="I100" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>10</v>
+        <v>922700</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-1800</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>10</v>
@@ -4368,31 +4614,34 @@
       <c r="P100" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>81000</v>
+        <v>81100</v>
       </c>
       <c r="E101" s="3">
-        <v>-6200</v>
+        <v>77100</v>
       </c>
       <c r="F101" s="3">
-        <v>-24300</v>
+        <v>-6400</v>
       </c>
       <c r="G101" s="3">
-        <v>5300</v>
+        <v>-25100</v>
       </c>
       <c r="H101" s="3">
-        <v>-2400</v>
+        <v>5500</v>
       </c>
       <c r="I101" s="3">
-        <v>3700</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>10</v>
+        <v>-2500</v>
+      </c>
+      <c r="J101" s="3">
+        <v>3800</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>10</v>
@@ -4412,31 +4661,34 @@
       <c r="P101" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>113800</v>
+        <v>-145800</v>
       </c>
       <c r="E102" s="3">
+        <v>119500</v>
+      </c>
+      <c r="F102" s="3">
         <v>2100</v>
       </c>
-      <c r="F102" s="3">
-        <v>81500</v>
-      </c>
       <c r="G102" s="3">
-        <v>-46300</v>
+        <v>84100</v>
       </c>
       <c r="H102" s="3">
-        <v>972700</v>
+        <v>-47800</v>
       </c>
       <c r="I102" s="3">
-        <v>14300</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>10</v>
+        <v>1003600</v>
+      </c>
+      <c r="J102" s="3">
+        <v>14800</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>10</v>
@@ -4454,6 +4706,9 @@
         <v>10</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="92">
   <si>
     <t>BZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,231 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>169300</v>
+        <v>153800</v>
       </c>
       <c r="E8" s="3">
-        <v>323200</v>
+        <v>167500</v>
       </c>
       <c r="F8" s="3">
-        <v>163400</v>
+        <v>319900</v>
       </c>
       <c r="G8" s="3">
-        <v>156600</v>
+        <v>161800</v>
       </c>
       <c r="H8" s="3">
-        <v>174000</v>
+        <v>155000</v>
       </c>
       <c r="I8" s="3">
-        <v>167800</v>
+        <v>172300</v>
       </c>
       <c r="J8" s="3">
+        <v>166100</v>
+      </c>
+      <c r="K8" s="3">
         <v>113200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>89800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>87000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>62800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>44600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>46800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>44400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>28900</v>
+        <v>28800</v>
       </c>
       <c r="E9" s="3">
-        <v>50500</v>
+        <v>28600</v>
       </c>
       <c r="F9" s="3">
-        <v>25500</v>
+        <v>50000</v>
       </c>
       <c r="G9" s="3">
-        <v>21500</v>
+        <v>25200</v>
       </c>
       <c r="H9" s="3">
-        <v>22200</v>
+        <v>21300</v>
       </c>
       <c r="I9" s="3">
-        <v>20600</v>
+        <v>22000</v>
       </c>
       <c r="J9" s="3">
+        <v>20400</v>
+      </c>
+      <c r="K9" s="3">
         <v>15300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>140400</v>
+        <v>125100</v>
       </c>
       <c r="E10" s="3">
-        <v>272700</v>
+        <v>139000</v>
       </c>
       <c r="F10" s="3">
-        <v>138000</v>
+        <v>269900</v>
       </c>
       <c r="G10" s="3">
-        <v>135100</v>
+        <v>136500</v>
       </c>
       <c r="H10" s="3">
-        <v>151800</v>
+        <v>133800</v>
       </c>
       <c r="I10" s="3">
-        <v>147200</v>
+        <v>150200</v>
       </c>
       <c r="J10" s="3">
+        <v>145700</v>
+      </c>
+      <c r="K10" s="3">
         <v>97900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>78800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>76800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>54900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>38600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>40600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>38500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>32300</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,55 +907,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>41700</v>
+        <v>41800</v>
       </c>
       <c r="E12" s="3">
-        <v>85900</v>
+        <v>41300</v>
       </c>
       <c r="F12" s="3">
-        <v>41800</v>
+        <v>85100</v>
       </c>
       <c r="G12" s="3">
-        <v>28600</v>
+        <v>41300</v>
       </c>
       <c r="H12" s="3">
-        <v>30100</v>
+        <v>28300</v>
       </c>
       <c r="I12" s="3">
-        <v>35900</v>
+        <v>29800</v>
       </c>
       <c r="J12" s="3">
+        <v>35500</v>
+      </c>
+      <c r="K12" s="3">
         <v>23500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>21200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>20600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>17200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>16500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>15600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>14100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1012,32 +1031,35 @@
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="3">
         <v>-300</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="3">
         <v>-200</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>149500</v>
+        <v>202200</v>
       </c>
       <c r="E17" s="3">
-        <v>312700</v>
+        <v>147900</v>
       </c>
       <c r="F17" s="3">
-        <v>163900</v>
+        <v>309500</v>
       </c>
       <c r="G17" s="3">
-        <v>120300</v>
+        <v>162200</v>
       </c>
       <c r="H17" s="3">
-        <v>129300</v>
+        <v>119000</v>
       </c>
       <c r="I17" s="3">
-        <v>371800</v>
+        <v>128000</v>
       </c>
       <c r="J17" s="3">
+        <v>368000</v>
+      </c>
+      <c r="K17" s="3">
         <v>139100</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O17" s="3">
         <v>88900</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>19800</v>
+        <v>-48400</v>
       </c>
       <c r="E18" s="3">
-        <v>10500</v>
+        <v>19600</v>
       </c>
       <c r="F18" s="3">
+        <v>10400</v>
+      </c>
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
-        <v>36400</v>
-      </c>
       <c r="H18" s="3">
-        <v>44700</v>
+        <v>36000</v>
       </c>
       <c r="I18" s="3">
-        <v>-204000</v>
+        <v>44200</v>
       </c>
       <c r="J18" s="3">
+        <v>-202000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-25900</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O18" s="3">
         <v>-44300</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,55 +1244,59 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>14600</v>
+        <v>17600</v>
       </c>
       <c r="E20" s="3">
-        <v>3100</v>
+        <v>14400</v>
       </c>
       <c r="F20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1282,32 +1318,35 @@
       <c r="I21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="3">
         <v>-22800</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O21" s="3">
         <v>-43200</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>10</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,76 +1392,82 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>34400</v>
+        <v>-30800</v>
       </c>
       <c r="E23" s="3">
-        <v>13600</v>
+        <v>34000</v>
       </c>
       <c r="F23" s="3">
+        <v>13400</v>
+      </c>
+      <c r="G23" s="3">
         <v>100</v>
       </c>
-      <c r="G23" s="3">
-        <v>37700</v>
-      </c>
       <c r="H23" s="3">
-        <v>45400</v>
+        <v>37300</v>
       </c>
       <c r="I23" s="3">
-        <v>-203100</v>
+        <v>45000</v>
       </c>
       <c r="J23" s="3">
+        <v>-201000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-25300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-73700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-24700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-44000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-17900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4000</v>
+        <v>-4600</v>
       </c>
       <c r="E24" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F24" s="3">
         <v>2000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4300</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1447,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>30400</v>
+        <v>-26300</v>
       </c>
       <c r="E26" s="3">
-        <v>11500</v>
+        <v>30100</v>
       </c>
       <c r="F26" s="3">
+        <v>11400</v>
+      </c>
+      <c r="G26" s="3">
         <v>-1700</v>
       </c>
-      <c r="G26" s="3">
-        <v>33500</v>
-      </c>
       <c r="H26" s="3">
-        <v>41100</v>
+        <v>33100</v>
       </c>
       <c r="I26" s="3">
-        <v>-203100</v>
+        <v>40700</v>
       </c>
       <c r="J26" s="3">
+        <v>-201000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-25300</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O26" s="3">
         <v>-44000</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>10</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>30400</v>
+        <v>-26300</v>
       </c>
       <c r="E27" s="3">
-        <v>11500</v>
+        <v>30100</v>
       </c>
       <c r="F27" s="3">
+        <v>11400</v>
+      </c>
+      <c r="G27" s="3">
         <v>-1700</v>
       </c>
-      <c r="G27" s="3">
-        <v>33500</v>
-      </c>
       <c r="H27" s="3">
-        <v>41100</v>
+        <v>33100</v>
       </c>
       <c r="I27" s="3">
-        <v>-213400</v>
+        <v>40700</v>
       </c>
       <c r="J27" s="3">
+        <v>-211200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-38600</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O27" s="3">
         <v>-54200</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>10</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-14600</v>
+        <v>-17600</v>
       </c>
       <c r="E32" s="3">
-        <v>-3100</v>
+        <v>-14400</v>
       </c>
       <c r="F32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>10</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>30400</v>
+        <v>-26300</v>
       </c>
       <c r="E33" s="3">
-        <v>11500</v>
+        <v>30100</v>
       </c>
       <c r="F33" s="3">
+        <v>11400</v>
+      </c>
+      <c r="G33" s="3">
         <v>-1700</v>
       </c>
-      <c r="G33" s="3">
-        <v>33500</v>
-      </c>
       <c r="H33" s="3">
-        <v>41100</v>
+        <v>33100</v>
       </c>
       <c r="I33" s="3">
-        <v>-213400</v>
+        <v>40700</v>
       </c>
       <c r="J33" s="3">
+        <v>-211200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-38600</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O33" s="3">
         <v>-54200</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>10</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>30400</v>
+        <v>-26300</v>
       </c>
       <c r="E35" s="3">
-        <v>11500</v>
+        <v>30100</v>
       </c>
       <c r="F35" s="3">
+        <v>11400</v>
+      </c>
+      <c r="G35" s="3">
         <v>-1700</v>
       </c>
-      <c r="G35" s="3">
-        <v>33500</v>
-      </c>
       <c r="H35" s="3">
-        <v>41100</v>
+        <v>33100</v>
       </c>
       <c r="I35" s="3">
-        <v>-213400</v>
+        <v>40700</v>
       </c>
       <c r="J35" s="3">
+        <v>-211200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-38600</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O35" s="3">
         <v>-54200</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>10</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,35 +2139,36 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1602600</v>
+        <v>1386200</v>
       </c>
       <c r="E41" s="3">
-        <v>1748400</v>
+        <v>1586200</v>
       </c>
       <c r="F41" s="3">
-        <v>1631000</v>
+        <v>1730500</v>
       </c>
       <c r="G41" s="3">
-        <v>1628900</v>
+        <v>1614400</v>
       </c>
       <c r="H41" s="3">
-        <v>1544800</v>
+        <v>1612200</v>
       </c>
       <c r="I41" s="3">
-        <v>1592600</v>
+        <v>1529000</v>
       </c>
       <c r="J41" s="3">
+        <v>1576300</v>
+      </c>
+      <c r="K41" s="3">
         <v>589000</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>10</v>
       </c>
@@ -2101,35 +2187,38 @@
       <c r="Q41" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>397000</v>
+        <v>491600</v>
       </c>
       <c r="E42" s="3">
-        <v>116700</v>
+        <v>393000</v>
       </c>
       <c r="F42" s="3">
-        <v>153500</v>
+        <v>115500</v>
       </c>
       <c r="G42" s="3">
-        <v>127100</v>
+        <v>151900</v>
       </c>
       <c r="H42" s="3">
-        <v>170200</v>
+        <v>125800</v>
       </c>
       <c r="I42" s="3">
-        <v>89000</v>
+        <v>168400</v>
       </c>
       <c r="J42" s="3">
+        <v>88100</v>
+      </c>
+      <c r="K42" s="3">
         <v>79000</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>10</v>
       </c>
@@ -2148,35 +2237,38 @@
       <c r="Q42" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E43" s="3">
         <v>2100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G43" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H43" s="3">
+        <v>58900</v>
+      </c>
+      <c r="I43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J43" s="3">
         <v>1700</v>
       </c>
-      <c r="F43" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G43" s="3">
-        <v>59500</v>
-      </c>
-      <c r="H43" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I43" s="3">
-        <v>1700</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>19500</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>10</v>
       </c>
@@ -2195,8 +2287,11 @@
       <c r="Q43" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,35 +2337,38 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>78900</v>
+        <v>85400</v>
       </c>
       <c r="E45" s="3">
-        <v>74800</v>
+        <v>78100</v>
       </c>
       <c r="F45" s="3">
-        <v>83700</v>
+        <v>74000</v>
       </c>
       <c r="G45" s="3">
-        <v>45700</v>
+        <v>82900</v>
       </c>
       <c r="H45" s="3">
-        <v>86600</v>
+        <v>45200</v>
       </c>
       <c r="I45" s="3">
-        <v>37800</v>
+        <v>85700</v>
       </c>
       <c r="J45" s="3">
+        <v>37400</v>
+      </c>
+      <c r="K45" s="3">
         <v>22200</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>10</v>
       </c>
@@ -2289,35 +2387,38 @@
       <c r="Q45" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2080600</v>
+        <v>1965400</v>
       </c>
       <c r="E46" s="3">
-        <v>1941500</v>
+        <v>2059300</v>
       </c>
       <c r="F46" s="3">
-        <v>1869800</v>
+        <v>1921700</v>
       </c>
       <c r="G46" s="3">
-        <v>1861200</v>
+        <v>1850600</v>
       </c>
       <c r="H46" s="3">
-        <v>1802600</v>
+        <v>1842100</v>
       </c>
       <c r="I46" s="3">
-        <v>1721100</v>
+        <v>1784200</v>
       </c>
       <c r="J46" s="3">
+        <v>1703500</v>
+      </c>
+      <c r="K46" s="3">
         <v>709700</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>10</v>
       </c>
@@ -2336,8 +2437,11 @@
       <c r="Q46" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,35 +2487,38 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>123700</v>
+        <v>139400</v>
       </c>
       <c r="E48" s="3">
-        <v>122000</v>
+        <v>122400</v>
       </c>
       <c r="F48" s="3">
-        <v>102200</v>
+        <v>120800</v>
       </c>
       <c r="G48" s="3">
-        <v>97400</v>
+        <v>101200</v>
       </c>
       <c r="H48" s="3">
-        <v>76200</v>
+        <v>96400</v>
       </c>
       <c r="I48" s="3">
-        <v>60500</v>
+        <v>75400</v>
       </c>
       <c r="J48" s="3">
+        <v>59900</v>
+      </c>
+      <c r="K48" s="3">
         <v>53900</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>10</v>
       </c>
@@ -2430,13 +2537,16 @@
       <c r="Q48" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>100</v>
+        <v>2300</v>
       </c>
       <c r="E49" s="3">
         <v>100</v>
@@ -2456,8 +2566,8 @@
       <c r="J49" s="3">
         <v>100</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>10</v>
+      <c r="K49" s="3">
+        <v>100</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>10</v>
@@ -2477,8 +2587,11 @@
       <c r="Q49" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2687,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2595,11 +2714,11 @@
         <v>600</v>
       </c>
       <c r="J52" s="3">
+        <v>600</v>
+      </c>
+      <c r="K52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>10</v>
       </c>
@@ -2618,8 +2737,11 @@
       <c r="Q52" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,35 +2787,38 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2204900</v>
+        <v>2107600</v>
       </c>
       <c r="E54" s="3">
-        <v>2064200</v>
+        <v>2182400</v>
       </c>
       <c r="F54" s="3">
-        <v>1972600</v>
+        <v>2043100</v>
       </c>
       <c r="G54" s="3">
-        <v>1959200</v>
+        <v>1952400</v>
       </c>
       <c r="H54" s="3">
-        <v>1879500</v>
+        <v>1939200</v>
       </c>
       <c r="I54" s="3">
-        <v>1782200</v>
+        <v>1860200</v>
       </c>
       <c r="J54" s="3">
+        <v>1764000</v>
+      </c>
+      <c r="K54" s="3">
         <v>763800</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>10</v>
       </c>
@@ -2712,8 +2837,11 @@
       <c r="Q54" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,35 +2879,36 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>99200</v>
+        <v>116400</v>
       </c>
       <c r="E57" s="3">
-        <v>100400</v>
+        <v>98200</v>
       </c>
       <c r="F57" s="3">
-        <v>80800</v>
+        <v>99400</v>
       </c>
       <c r="G57" s="3">
-        <v>7300</v>
+        <v>79900</v>
       </c>
       <c r="H57" s="3">
-        <v>68000</v>
+        <v>7200</v>
       </c>
       <c r="I57" s="3">
-        <v>68200</v>
+        <v>67300</v>
       </c>
       <c r="J57" s="3">
+        <v>67500</v>
+      </c>
+      <c r="K57" s="3">
         <v>13600</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>10</v>
       </c>
@@ -2797,8 +2927,11 @@
       <c r="Q57" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,35 +2977,38 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>314400</v>
+        <v>314500</v>
       </c>
       <c r="E59" s="3">
-        <v>305200</v>
+        <v>311200</v>
       </c>
       <c r="F59" s="3">
-        <v>321900</v>
+        <v>302100</v>
       </c>
       <c r="G59" s="3">
-        <v>392600</v>
+        <v>318600</v>
       </c>
       <c r="H59" s="3">
-        <v>284300</v>
+        <v>388600</v>
       </c>
       <c r="I59" s="3">
-        <v>280600</v>
+        <v>281400</v>
       </c>
       <c r="J59" s="3">
+        <v>277800</v>
+      </c>
+      <c r="K59" s="3">
         <v>285400</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>10</v>
       </c>
@@ -2891,35 +3027,38 @@
       <c r="Q59" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>413600</v>
+        <v>430900</v>
       </c>
       <c r="E60" s="3">
-        <v>405700</v>
+        <v>409400</v>
       </c>
       <c r="F60" s="3">
-        <v>402600</v>
+        <v>401500</v>
       </c>
       <c r="G60" s="3">
-        <v>399900</v>
+        <v>398500</v>
       </c>
       <c r="H60" s="3">
-        <v>352300</v>
+        <v>395800</v>
       </c>
       <c r="I60" s="3">
-        <v>348900</v>
+        <v>348700</v>
       </c>
       <c r="J60" s="3">
+        <v>345300</v>
+      </c>
+      <c r="K60" s="3">
         <v>299000</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>10</v>
       </c>
@@ -2938,8 +3077,11 @@
       <c r="Q60" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,35 +3127,38 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>23500</v>
+        <v>22000</v>
       </c>
       <c r="E62" s="3">
-        <v>23900</v>
+        <v>23300</v>
       </c>
       <c r="F62" s="3">
-        <v>23400</v>
+        <v>23600</v>
       </c>
       <c r="G62" s="3">
-        <v>26300</v>
+        <v>23200</v>
       </c>
       <c r="H62" s="3">
-        <v>22700</v>
+        <v>26100</v>
       </c>
       <c r="I62" s="3">
-        <v>14100</v>
+        <v>22500</v>
       </c>
       <c r="J62" s="3">
+        <v>14000</v>
+      </c>
+      <c r="K62" s="3">
         <v>13400</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>10</v>
       </c>
@@ -3032,8 +3177,11 @@
       <c r="Q62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,35 +3327,38 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>437100</v>
+        <v>452900</v>
       </c>
       <c r="E66" s="3">
-        <v>429500</v>
+        <v>432700</v>
       </c>
       <c r="F66" s="3">
-        <v>426100</v>
+        <v>425200</v>
       </c>
       <c r="G66" s="3">
-        <v>426200</v>
+        <v>421700</v>
       </c>
       <c r="H66" s="3">
-        <v>375100</v>
+        <v>421800</v>
       </c>
       <c r="I66" s="3">
-        <v>363000</v>
+        <v>371200</v>
       </c>
       <c r="J66" s="3">
+        <v>359300</v>
+      </c>
+      <c r="K66" s="3">
         <v>312400</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>10</v>
       </c>
@@ -3220,8 +3377,11 @@
       <c r="Q66" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3357,11 +3524,11 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>830500</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3380,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,35 +3597,38 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-488500</v>
+        <v>-509800</v>
       </c>
       <c r="E72" s="3">
-        <v>-516700</v>
+        <v>-483500</v>
       </c>
       <c r="F72" s="3">
-        <v>-532200</v>
+        <v>-511400</v>
       </c>
       <c r="G72" s="3">
-        <v>-530400</v>
+        <v>-526700</v>
       </c>
       <c r="H72" s="3">
-        <v>-563900</v>
+        <v>-525000</v>
       </c>
       <c r="I72" s="3">
-        <v>-605000</v>
+        <v>-558100</v>
       </c>
       <c r="J72" s="3">
+        <v>-598800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-401900</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>10</v>
       </c>
@@ -3474,8 +3647,11 @@
       <c r="Q72" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,35 +3797,38 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1767800</v>
+        <v>1654700</v>
       </c>
       <c r="E76" s="3">
-        <v>1634600</v>
+        <v>1749700</v>
       </c>
       <c r="F76" s="3">
-        <v>1546500</v>
+        <v>1617900</v>
       </c>
       <c r="G76" s="3">
-        <v>1533000</v>
+        <v>1530700</v>
       </c>
       <c r="H76" s="3">
-        <v>1504400</v>
+        <v>1517300</v>
       </c>
       <c r="I76" s="3">
-        <v>1419200</v>
+        <v>1489000</v>
       </c>
       <c r="J76" s="3">
+        <v>1404700</v>
+      </c>
+      <c r="K76" s="3">
         <v>-379100</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>10</v>
       </c>
@@ -3662,8 +3847,11 @@
       <c r="Q76" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>30400</v>
+        <v>-26300</v>
       </c>
       <c r="E81" s="3">
-        <v>11500</v>
+        <v>30100</v>
       </c>
       <c r="F81" s="3">
+        <v>11400</v>
+      </c>
+      <c r="G81" s="3">
         <v>-1700</v>
       </c>
-      <c r="G81" s="3">
-        <v>33500</v>
-      </c>
       <c r="H81" s="3">
-        <v>41100</v>
+        <v>33100</v>
       </c>
       <c r="I81" s="3">
-        <v>-213400</v>
+        <v>40700</v>
       </c>
       <c r="J81" s="3">
+        <v>-211200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-38600</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O81" s="3">
         <v>-54200</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>10</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3850,12 +4048,12 @@
       <c r="I83" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K83" s="3">
         <v>2500</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>10</v>
       </c>
@@ -3874,8 +4072,11 @@
       <c r="Q83" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,35 +4322,38 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>52600</v>
+        <v>22100</v>
       </c>
       <c r="E89" s="3">
-        <v>69100</v>
+        <v>52100</v>
       </c>
       <c r="F89" s="3">
-        <v>42200</v>
+        <v>68400</v>
       </c>
       <c r="G89" s="3">
-        <v>76800</v>
+        <v>41800</v>
       </c>
       <c r="H89" s="3">
-        <v>38800</v>
+        <v>76000</v>
       </c>
       <c r="I89" s="3">
-        <v>96400</v>
+        <v>38400</v>
       </c>
       <c r="J89" s="3">
+        <v>95400</v>
+      </c>
+      <c r="K89" s="3">
         <v>23700</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>10</v>
       </c>
@@ -4156,8 +4372,11 @@
       <c r="Q89" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,35 +4394,36 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>10</v>
+      <c r="D91" s="3">
+        <v>-198400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-61500</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-8800</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>10</v>
       </c>
@@ -4222,8 +4442,11 @@
       <c r="Q91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,35 +4542,38 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-286300</v>
+        <v>-103100</v>
       </c>
       <c r="E94" s="3">
-        <v>-14100</v>
+        <v>-283300</v>
       </c>
       <c r="F94" s="3">
-        <v>-35000</v>
+        <v>-13900</v>
       </c>
       <c r="G94" s="3">
-        <v>29300</v>
+        <v>-34600</v>
       </c>
       <c r="H94" s="3">
-        <v>-91700</v>
+        <v>29000</v>
       </c>
       <c r="I94" s="3">
-        <v>-13100</v>
+        <v>-90700</v>
       </c>
       <c r="J94" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-11000</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>10</v>
       </c>
@@ -4363,8 +4592,11 @@
       <c r="Q94" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,35 +4812,38 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>6700</v>
+        <v>-89300</v>
       </c>
       <c r="E100" s="3">
-        <v>-12600</v>
+        <v>6600</v>
       </c>
       <c r="F100" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="G100" s="3">
         <v>1300</v>
       </c>
-      <c r="G100" s="3">
-        <v>3100</v>
-      </c>
       <c r="H100" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I100" s="3">
         <v>-300</v>
       </c>
-      <c r="I100" s="3">
-        <v>922700</v>
-      </c>
       <c r="J100" s="3">
+        <v>913200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1800</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>10</v>
       </c>
@@ -4617,35 +4862,38 @@
       <c r="Q100" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>81100</v>
+        <v>-29700</v>
       </c>
       <c r="E101" s="3">
-        <v>77100</v>
+        <v>80300</v>
       </c>
       <c r="F101" s="3">
-        <v>-6400</v>
+        <v>76400</v>
       </c>
       <c r="G101" s="3">
-        <v>-25100</v>
+        <v>-6300</v>
       </c>
       <c r="H101" s="3">
-        <v>5500</v>
+        <v>-24900</v>
       </c>
       <c r="I101" s="3">
-        <v>-2500</v>
+        <v>5400</v>
       </c>
       <c r="J101" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K101" s="3">
         <v>3800</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>10</v>
       </c>
@@ -4664,35 +4912,38 @@
       <c r="Q101" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-145800</v>
+        <v>-200000</v>
       </c>
       <c r="E102" s="3">
-        <v>119500</v>
+        <v>-144300</v>
       </c>
       <c r="F102" s="3">
+        <v>118300</v>
+      </c>
+      <c r="G102" s="3">
         <v>2100</v>
       </c>
-      <c r="G102" s="3">
-        <v>84100</v>
-      </c>
       <c r="H102" s="3">
-        <v>-47800</v>
+        <v>83200</v>
       </c>
       <c r="I102" s="3">
-        <v>1003600</v>
+        <v>-47300</v>
       </c>
       <c r="J102" s="3">
+        <v>993300</v>
+      </c>
+      <c r="K102" s="3">
         <v>14800</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>10</v>
       </c>
@@ -4709,6 +4960,9 @@
         <v>10</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="92">
   <si>
     <t>BZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,257 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>153800</v>
+        <v>205000</v>
       </c>
       <c r="E8" s="3">
-        <v>167500</v>
+        <v>176000</v>
       </c>
       <c r="F8" s="3">
-        <v>319900</v>
+        <v>149100</v>
       </c>
       <c r="G8" s="3">
-        <v>161800</v>
+        <v>162400</v>
       </c>
       <c r="H8" s="3">
-        <v>155000</v>
+        <v>153300</v>
       </c>
       <c r="I8" s="3">
+        <v>156800</v>
+      </c>
+      <c r="J8" s="3">
+        <v>150300</v>
+      </c>
+      <c r="K8" s="3">
         <v>172300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>166100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>113200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>89800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>87000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>62800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>44600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>46800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>44400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>28800</v>
+        <v>37200</v>
       </c>
       <c r="E9" s="3">
-        <v>28600</v>
+        <v>34100</v>
       </c>
       <c r="F9" s="3">
-        <v>50000</v>
+        <v>27900</v>
       </c>
       <c r="G9" s="3">
-        <v>25200</v>
+        <v>27700</v>
       </c>
       <c r="H9" s="3">
-        <v>21300</v>
+        <v>24000</v>
       </c>
       <c r="I9" s="3">
+        <v>24400</v>
+      </c>
+      <c r="J9" s="3">
+        <v>20600</v>
+      </c>
+      <c r="K9" s="3">
         <v>22000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>20400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>15300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>11000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>10200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>8000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>6000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>6300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>5900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>125100</v>
+        <v>167700</v>
       </c>
       <c r="E10" s="3">
-        <v>139000</v>
+        <v>142000</v>
       </c>
       <c r="F10" s="3">
-        <v>269900</v>
+        <v>121200</v>
       </c>
       <c r="G10" s="3">
-        <v>136500</v>
+        <v>134700</v>
       </c>
       <c r="H10" s="3">
-        <v>133800</v>
+        <v>129200</v>
       </c>
       <c r="I10" s="3">
+        <v>132300</v>
+      </c>
+      <c r="J10" s="3">
+        <v>129600</v>
+      </c>
+      <c r="K10" s="3">
         <v>150200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>145700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>97900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>78800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>76800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>54900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>38600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>40600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>38500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>32300</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,58 +934,66 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>41800</v>
+        <v>50400</v>
       </c>
       <c r="E12" s="3">
-        <v>41300</v>
+        <v>45900</v>
       </c>
       <c r="F12" s="3">
-        <v>85100</v>
+        <v>40500</v>
       </c>
       <c r="G12" s="3">
-        <v>41300</v>
+        <v>40000</v>
       </c>
       <c r="H12" s="3">
-        <v>28300</v>
+        <v>42400</v>
       </c>
       <c r="I12" s="3">
+        <v>40100</v>
+      </c>
+      <c r="J12" s="3">
+        <v>27400</v>
+      </c>
+      <c r="K12" s="3">
         <v>29800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>35500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>23500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>21200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>20600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>17200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>16500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>15600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>14100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1042,14 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1034,32 +1074,38 @@
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="3">
         <v>-300</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-200</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1154,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1177,122 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>202200</v>
+        <v>180800</v>
       </c>
       <c r="E17" s="3">
-        <v>147900</v>
+        <v>186700</v>
       </c>
       <c r="F17" s="3">
-        <v>309500</v>
+        <v>196000</v>
       </c>
       <c r="G17" s="3">
-        <v>162200</v>
+        <v>143400</v>
       </c>
       <c r="H17" s="3">
-        <v>119000</v>
+        <v>142700</v>
       </c>
       <c r="I17" s="3">
+        <v>157200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>115400</v>
+      </c>
+      <c r="K17" s="3">
         <v>128000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>368000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>139100</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="3">
         <v>88900</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-48400</v>
+        <v>24100</v>
       </c>
       <c r="E18" s="3">
-        <v>19600</v>
+        <v>-10700</v>
       </c>
       <c r="F18" s="3">
-        <v>10400</v>
+        <v>-46900</v>
       </c>
       <c r="G18" s="3">
-        <v>-500</v>
+        <v>19000</v>
       </c>
       <c r="H18" s="3">
-        <v>36000</v>
+        <v>10500</v>
       </c>
       <c r="I18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>34900</v>
+      </c>
+      <c r="K18" s="3">
         <v>44200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-202000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-25900</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-44300</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,58 +1311,66 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>17600</v>
+        <v>21200</v>
       </c>
       <c r="E20" s="3">
-        <v>14400</v>
+        <v>18200</v>
       </c>
       <c r="F20" s="3">
-        <v>3000</v>
+        <v>17000</v>
       </c>
       <c r="G20" s="3">
+        <v>14000</v>
+      </c>
+      <c r="H20" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>1300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1321,32 +1395,38 @@
       <c r="J21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M21" s="3">
         <v>-22800</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-43200</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,85 +1475,97 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-30800</v>
+        <v>45300</v>
       </c>
       <c r="E23" s="3">
-        <v>34000</v>
+        <v>7500</v>
       </c>
       <c r="F23" s="3">
-        <v>13400</v>
+        <v>-29900</v>
       </c>
       <c r="G23" s="3">
+        <v>33000</v>
+      </c>
+      <c r="H23" s="3">
+        <v>13000</v>
+      </c>
+      <c r="I23" s="3">
         <v>100</v>
       </c>
-      <c r="H23" s="3">
-        <v>37300</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
+        <v>36200</v>
+      </c>
+      <c r="K23" s="3">
         <v>45000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-201000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-25300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-73700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>5000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-24700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-44000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-17900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-9800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-4600</v>
+        <v>2700</v>
       </c>
       <c r="E24" s="3">
-        <v>3900</v>
+        <v>3000</v>
       </c>
       <c r="F24" s="3">
-        <v>2000</v>
+        <v>-4400</v>
       </c>
       <c r="G24" s="3">
-        <v>1800</v>
+        <v>3800</v>
       </c>
       <c r="H24" s="3">
-        <v>4200</v>
+        <v>200</v>
       </c>
       <c r="I24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J24" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K24" s="3">
         <v>4300</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1495,8 +1587,14 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1643,126 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-26300</v>
+        <v>42700</v>
       </c>
       <c r="E26" s="3">
-        <v>30100</v>
+        <v>4500</v>
       </c>
       <c r="F26" s="3">
-        <v>11400</v>
+        <v>-25500</v>
       </c>
       <c r="G26" s="3">
+        <v>29200</v>
+      </c>
+      <c r="H26" s="3">
+        <v>12700</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1700</v>
       </c>
-      <c r="H26" s="3">
-        <v>33100</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
+        <v>32100</v>
+      </c>
+      <c r="K26" s="3">
         <v>40700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-201000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-25300</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-44000</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-26300</v>
+        <v>42700</v>
       </c>
       <c r="E27" s="3">
-        <v>30100</v>
+        <v>4500</v>
       </c>
       <c r="F27" s="3">
-        <v>11400</v>
+        <v>-25500</v>
       </c>
       <c r="G27" s="3">
+        <v>29200</v>
+      </c>
+      <c r="H27" s="3">
+        <v>12700</v>
+      </c>
+      <c r="I27" s="3">
         <v>-1700</v>
       </c>
-      <c r="H27" s="3">
-        <v>33100</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
+        <v>32100</v>
+      </c>
+      <c r="K27" s="3">
         <v>40700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-211200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-38600</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-54200</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1811,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1867,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1923,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1979,126 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-17600</v>
+        <v>-21200</v>
       </c>
       <c r="E32" s="3">
-        <v>-14400</v>
+        <v>-18200</v>
       </c>
       <c r="F32" s="3">
-        <v>-3000</v>
+        <v>-17000</v>
       </c>
       <c r="G32" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-1300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-26300</v>
+        <v>42700</v>
       </c>
       <c r="E33" s="3">
-        <v>30100</v>
+        <v>4500</v>
       </c>
       <c r="F33" s="3">
-        <v>11400</v>
+        <v>-25500</v>
       </c>
       <c r="G33" s="3">
+        <v>29200</v>
+      </c>
+      <c r="H33" s="3">
+        <v>12700</v>
+      </c>
+      <c r="I33" s="3">
         <v>-1700</v>
       </c>
-      <c r="H33" s="3">
-        <v>33100</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
+        <v>32100</v>
+      </c>
+      <c r="K33" s="3">
         <v>40700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-211200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-38600</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-54200</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2147,131 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-26300</v>
+        <v>42700</v>
       </c>
       <c r="E35" s="3">
-        <v>30100</v>
+        <v>4500</v>
       </c>
       <c r="F35" s="3">
-        <v>11400</v>
+        <v>-25500</v>
       </c>
       <c r="G35" s="3">
+        <v>29200</v>
+      </c>
+      <c r="H35" s="3">
+        <v>12700</v>
+      </c>
+      <c r="I35" s="3">
         <v>-1700</v>
       </c>
-      <c r="H35" s="3">
-        <v>33100</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
+        <v>32100</v>
+      </c>
+      <c r="K35" s="3">
         <v>40700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-211200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-38600</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-54200</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2290,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,41 +2312,43 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1386200</v>
+        <v>377600</v>
       </c>
       <c r="E41" s="3">
-        <v>1586200</v>
+        <v>861800</v>
       </c>
       <c r="F41" s="3">
-        <v>1730500</v>
+        <v>1343600</v>
       </c>
       <c r="G41" s="3">
-        <v>1614400</v>
+        <v>1537500</v>
       </c>
       <c r="H41" s="3">
-        <v>1612200</v>
+        <v>1677300</v>
       </c>
       <c r="I41" s="3">
+        <v>1564700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1562700</v>
+      </c>
+      <c r="K41" s="3">
         <v>1529000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1576300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>589000</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>10</v>
       </c>
@@ -2190,41 +2364,47 @@
       <c r="R41" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>491600</v>
+        <v>1384700</v>
       </c>
       <c r="E42" s="3">
-        <v>393000</v>
+        <v>992200</v>
       </c>
       <c r="F42" s="3">
-        <v>115500</v>
+        <v>476500</v>
       </c>
       <c r="G42" s="3">
-        <v>151900</v>
+        <v>380900</v>
       </c>
       <c r="H42" s="3">
-        <v>125800</v>
+        <v>111900</v>
       </c>
       <c r="I42" s="3">
+        <v>147200</v>
+      </c>
+      <c r="J42" s="3">
+        <v>121900</v>
+      </c>
+      <c r="K42" s="3">
         <v>168400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>88100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>79000</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>10</v>
       </c>
@@ -2240,41 +2420,47 @@
       <c r="R42" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2200</v>
+        <v>3400</v>
       </c>
       <c r="E43" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F43" s="3">
         <v>2100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H43" s="3">
         <v>1600</v>
       </c>
-      <c r="G43" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H43" s="3">
-        <v>58900</v>
-      </c>
       <c r="I43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J43" s="3">
+        <v>57000</v>
+      </c>
+      <c r="K43" s="3">
         <v>1100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>19500</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>10</v>
       </c>
@@ -2290,8 +2476,14 @@
       <c r="R43" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,41 +2532,47 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>85400</v>
+        <v>60200</v>
       </c>
       <c r="E45" s="3">
-        <v>78100</v>
+        <v>65600</v>
       </c>
       <c r="F45" s="3">
-        <v>74000</v>
+        <v>82800</v>
       </c>
       <c r="G45" s="3">
-        <v>82900</v>
+        <v>75700</v>
       </c>
       <c r="H45" s="3">
-        <v>45200</v>
+        <v>71700</v>
       </c>
       <c r="I45" s="3">
+        <v>80300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>43800</v>
+      </c>
+      <c r="K45" s="3">
         <v>85700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>37400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>22200</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>10</v>
       </c>
@@ -2390,41 +2588,47 @@
       <c r="R45" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1965400</v>
+        <v>1825900</v>
       </c>
       <c r="E46" s="3">
-        <v>2059300</v>
+        <v>1922900</v>
       </c>
       <c r="F46" s="3">
-        <v>1921700</v>
+        <v>1905000</v>
       </c>
       <c r="G46" s="3">
-        <v>1850600</v>
+        <v>1996000</v>
       </c>
       <c r="H46" s="3">
-        <v>1842100</v>
+        <v>1862600</v>
       </c>
       <c r="I46" s="3">
+        <v>1793700</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1785500</v>
+      </c>
+      <c r="K46" s="3">
         <v>1784200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1703500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>709700</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>10</v>
       </c>
@@ -2440,31 +2644,37 @@
       <c r="R46" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>269000</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2490,41 +2700,47 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>139400</v>
+        <v>159700</v>
       </c>
       <c r="E48" s="3">
-        <v>122400</v>
+        <v>141800</v>
       </c>
       <c r="F48" s="3">
-        <v>120800</v>
+        <v>135100</v>
       </c>
       <c r="G48" s="3">
-        <v>101200</v>
+        <v>118700</v>
       </c>
       <c r="H48" s="3">
-        <v>96400</v>
+        <v>117100</v>
       </c>
       <c r="I48" s="3">
+        <v>98100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>93400</v>
+      </c>
+      <c r="K48" s="3">
         <v>75400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>59900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>53900</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>10</v>
       </c>
@@ -2540,19 +2756,25 @@
       <c r="R48" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="E49" s="3">
-        <v>100</v>
+        <v>2100</v>
       </c>
       <c r="F49" s="3">
-        <v>100</v>
+        <v>2200</v>
       </c>
       <c r="G49" s="3">
         <v>100</v>
@@ -2569,11 +2791,11 @@
       <c r="K49" s="3">
         <v>100</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>10</v>
+      <c r="L49" s="3">
+        <v>100</v>
+      </c>
+      <c r="M49" s="3">
+        <v>100</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>10</v>
@@ -2590,8 +2812,14 @@
       <c r="R49" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2868,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2924,14 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2717,14 +2957,14 @@
         <v>600</v>
       </c>
       <c r="K52" s="3">
+        <v>600</v>
+      </c>
+      <c r="L52" s="3">
+        <v>600</v>
+      </c>
+      <c r="M52" s="3">
         <v>100</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>10</v>
       </c>
@@ -2740,8 +2980,14 @@
       <c r="R52" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,41 +3036,47 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2107600</v>
+        <v>2257200</v>
       </c>
       <c r="E54" s="3">
-        <v>2182400</v>
+        <v>2067400</v>
       </c>
       <c r="F54" s="3">
-        <v>2043100</v>
+        <v>2042800</v>
       </c>
       <c r="G54" s="3">
-        <v>1952400</v>
+        <v>2115300</v>
       </c>
       <c r="H54" s="3">
-        <v>1939200</v>
+        <v>1980300</v>
       </c>
       <c r="I54" s="3">
+        <v>1892400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1879500</v>
+      </c>
+      <c r="K54" s="3">
         <v>1860200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1764000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>763800</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>10</v>
       </c>
@@ -2840,8 +3092,14 @@
       <c r="R54" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T54" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +3118,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,41 +3140,43 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>116400</v>
+        <v>95500</v>
       </c>
       <c r="E57" s="3">
-        <v>98200</v>
+        <v>69200</v>
       </c>
       <c r="F57" s="3">
-        <v>99400</v>
+        <v>112800</v>
       </c>
       <c r="G57" s="3">
-        <v>79900</v>
+        <v>95200</v>
       </c>
       <c r="H57" s="3">
-        <v>7200</v>
+        <v>96400</v>
       </c>
       <c r="I57" s="3">
+        <v>77500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K57" s="3">
         <v>67300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>67500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>13600</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>10</v>
       </c>
@@ -2930,8 +3192,14 @@
       <c r="R57" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,41 +3248,47 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>314500</v>
+        <v>373900</v>
       </c>
       <c r="E59" s="3">
-        <v>311200</v>
+        <v>355900</v>
       </c>
       <c r="F59" s="3">
-        <v>302100</v>
+        <v>304800</v>
       </c>
       <c r="G59" s="3">
-        <v>318600</v>
+        <v>301600</v>
       </c>
       <c r="H59" s="3">
-        <v>388600</v>
+        <v>292800</v>
       </c>
       <c r="I59" s="3">
+        <v>308800</v>
+      </c>
+      <c r="J59" s="3">
+        <v>376600</v>
+      </c>
+      <c r="K59" s="3">
         <v>281400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>277800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>285400</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>10</v>
       </c>
@@ -3030,41 +3304,47 @@
       <c r="R59" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>430900</v>
+        <v>469400</v>
       </c>
       <c r="E60" s="3">
-        <v>409400</v>
+        <v>425100</v>
       </c>
       <c r="F60" s="3">
-        <v>401500</v>
+        <v>417600</v>
       </c>
       <c r="G60" s="3">
-        <v>398500</v>
+        <v>396800</v>
       </c>
       <c r="H60" s="3">
-        <v>395800</v>
+        <v>389200</v>
       </c>
       <c r="I60" s="3">
+        <v>386300</v>
+      </c>
+      <c r="J60" s="3">
+        <v>383600</v>
+      </c>
+      <c r="K60" s="3">
         <v>348700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>345300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>299000</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>10</v>
       </c>
@@ -3080,8 +3360,14 @@
       <c r="R60" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,41 +3416,47 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>22000</v>
+        <v>19800</v>
       </c>
       <c r="E62" s="3">
-        <v>23300</v>
+        <v>21000</v>
       </c>
       <c r="F62" s="3">
-        <v>23600</v>
+        <v>21400</v>
       </c>
       <c r="G62" s="3">
-        <v>23200</v>
+        <v>22600</v>
       </c>
       <c r="H62" s="3">
-        <v>26100</v>
+        <v>22900</v>
       </c>
       <c r="I62" s="3">
         <v>22500</v>
       </c>
       <c r="J62" s="3">
+        <v>25300</v>
+      </c>
+      <c r="K62" s="3">
+        <v>22500</v>
+      </c>
+      <c r="L62" s="3">
         <v>14000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>13400</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>10</v>
       </c>
@@ -3180,8 +3472,14 @@
       <c r="R62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3528,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3584,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,41 +3640,47 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>452900</v>
+        <v>489200</v>
       </c>
       <c r="E66" s="3">
-        <v>432700</v>
+        <v>446100</v>
       </c>
       <c r="F66" s="3">
-        <v>425200</v>
+        <v>439000</v>
       </c>
       <c r="G66" s="3">
-        <v>421700</v>
+        <v>419400</v>
       </c>
       <c r="H66" s="3">
-        <v>421800</v>
+        <v>412100</v>
       </c>
       <c r="I66" s="3">
+        <v>408700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>408900</v>
+      </c>
+      <c r="K66" s="3">
         <v>371200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>359300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>312400</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>10</v>
       </c>
@@ -3380,8 +3696,14 @@
       <c r="R66" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3722,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3774,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3830,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3527,14 +3863,14 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>830500</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3550,8 +3886,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,41 +3942,47 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-509800</v>
+        <v>-447000</v>
       </c>
       <c r="E72" s="3">
-        <v>-483500</v>
+        <v>-489600</v>
       </c>
       <c r="F72" s="3">
-        <v>-511400</v>
+        <v>-494100</v>
       </c>
       <c r="G72" s="3">
-        <v>-526700</v>
+        <v>-468600</v>
       </c>
       <c r="H72" s="3">
-        <v>-525000</v>
+        <v>-495700</v>
       </c>
       <c r="I72" s="3">
+        <v>-510500</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-508800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-558100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-598800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-401900</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>10</v>
       </c>
@@ -3650,8 +3998,14 @@
       <c r="R72" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +4054,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +4110,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,41 +4166,47 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1654700</v>
+        <v>1768000</v>
       </c>
       <c r="E76" s="3">
-        <v>1749700</v>
+        <v>1621300</v>
       </c>
       <c r="F76" s="3">
-        <v>1617900</v>
+        <v>1603900</v>
       </c>
       <c r="G76" s="3">
-        <v>1530700</v>
+        <v>1695900</v>
       </c>
       <c r="H76" s="3">
-        <v>1517300</v>
+        <v>1568200</v>
       </c>
       <c r="I76" s="3">
+        <v>1483700</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1470700</v>
+      </c>
+      <c r="K76" s="3">
         <v>1489000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1404700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-379100</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>10</v>
       </c>
@@ -3850,8 +4222,14 @@
       <c r="R76" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4278,131 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-26300</v>
+        <v>42700</v>
       </c>
       <c r="E81" s="3">
-        <v>30100</v>
+        <v>4500</v>
       </c>
       <c r="F81" s="3">
-        <v>11400</v>
+        <v>-25500</v>
       </c>
       <c r="G81" s="3">
+        <v>29200</v>
+      </c>
+      <c r="H81" s="3">
+        <v>12700</v>
+      </c>
+      <c r="I81" s="3">
         <v>-1700</v>
       </c>
-      <c r="H81" s="3">
-        <v>33100</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
+        <v>32100</v>
+      </c>
+      <c r="K81" s="3">
         <v>40700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-211200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-38600</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-54200</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q81" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T81" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,41 +4421,43 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M83" s="3">
         <v>2500</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>10</v>
       </c>
@@ -4075,8 +4473,14 @@
       <c r="R83" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4529,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4585,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4641,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4697,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,41 +4753,47 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>22100</v>
+        <v>105200</v>
       </c>
       <c r="E89" s="3">
-        <v>52100</v>
+        <v>74900</v>
       </c>
       <c r="F89" s="3">
-        <v>68400</v>
+        <v>21400</v>
       </c>
       <c r="G89" s="3">
-        <v>41800</v>
+        <v>50500</v>
       </c>
       <c r="H89" s="3">
-        <v>76000</v>
+        <v>25800</v>
       </c>
       <c r="I89" s="3">
+        <v>40500</v>
+      </c>
+      <c r="J89" s="3">
+        <v>73700</v>
+      </c>
+      <c r="K89" s="3">
         <v>38400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>95400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>23700</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>10</v>
       </c>
@@ -4375,8 +4809,14 @@
       <c r="R89" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4835,10 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4422,14 +4864,14 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-8800</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>10</v>
       </c>
@@ -4445,8 +4887,14 @@
       <c r="R91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4943,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,41 +4999,47 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-103100</v>
+        <v>-610000</v>
       </c>
       <c r="E94" s="3">
-        <v>-283300</v>
+        <v>-546000</v>
       </c>
       <c r="F94" s="3">
-        <v>-13900</v>
+        <v>-100000</v>
       </c>
       <c r="G94" s="3">
-        <v>-34600</v>
+        <v>-274600</v>
       </c>
       <c r="H94" s="3">
-        <v>29000</v>
+        <v>20100</v>
       </c>
       <c r="I94" s="3">
+        <v>-33600</v>
+      </c>
+      <c r="J94" s="3">
+        <v>28100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-90700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-12900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-11000</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>10</v>
       </c>
@@ -4595,8 +5055,14 @@
       <c r="R94" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +5081,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +5133,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +5189,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5245,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,41 +5301,47 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-89300</v>
+        <v>3200</v>
       </c>
       <c r="E100" s="3">
-        <v>6600</v>
+        <v>6300</v>
       </c>
       <c r="F100" s="3">
-        <v>-12500</v>
+        <v>-86500</v>
       </c>
       <c r="G100" s="3">
+        <v>6400</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="I100" s="3">
         <v>1300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>3000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>913200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1800</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>10</v>
       </c>
@@ -4865,41 +5357,47 @@
       <c r="R100" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-29700</v>
+        <v>17500</v>
       </c>
       <c r="E101" s="3">
-        <v>80300</v>
+        <v>-17100</v>
       </c>
       <c r="F101" s="3">
-        <v>76400</v>
+        <v>-28800</v>
       </c>
       <c r="G101" s="3">
-        <v>-6300</v>
+        <v>77800</v>
       </c>
       <c r="H101" s="3">
-        <v>-24900</v>
+        <v>80200</v>
       </c>
       <c r="I101" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="K101" s="3">
         <v>5400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-2400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>3800</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>10</v>
       </c>
@@ -4915,41 +5413,47 @@
       <c r="R101" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T101" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-200000</v>
+        <v>-484100</v>
       </c>
       <c r="E102" s="3">
-        <v>-144300</v>
+        <v>-481900</v>
       </c>
       <c r="F102" s="3">
-        <v>118300</v>
+        <v>-193800</v>
       </c>
       <c r="G102" s="3">
+        <v>-139900</v>
+      </c>
+      <c r="H102" s="3">
+        <v>112600</v>
+      </c>
+      <c r="I102" s="3">
         <v>2100</v>
       </c>
-      <c r="H102" s="3">
-        <v>83200</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
+        <v>80700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-47300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>993300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>14800</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>10</v>
       </c>
@@ -4963,6 +5467,12 @@
         <v>10</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="92">
   <si>
     <t>BZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,270 @@
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>205000</v>
+        <v>221800</v>
       </c>
       <c r="E8" s="3">
-        <v>176000</v>
+        <v>205400</v>
       </c>
       <c r="F8" s="3">
-        <v>149100</v>
+        <v>176400</v>
       </c>
       <c r="G8" s="3">
-        <v>162400</v>
+        <v>149400</v>
       </c>
       <c r="H8" s="3">
-        <v>153300</v>
+        <v>162700</v>
       </c>
       <c r="I8" s="3">
-        <v>156800</v>
+        <v>153600</v>
       </c>
       <c r="J8" s="3">
+        <v>157100</v>
+      </c>
+      <c r="K8" s="3">
         <v>150300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>172300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>166100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>113200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>89800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>87000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>62800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>44600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>46800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>44400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>37200</v>
+        <v>36900</v>
       </c>
       <c r="E9" s="3">
+        <v>37300</v>
+      </c>
+      <c r="F9" s="3">
         <v>34100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>27900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>27700</v>
       </c>
-      <c r="H9" s="3">
-        <v>24000</v>
-      </c>
       <c r="I9" s="3">
-        <v>24400</v>
+        <v>24100</v>
       </c>
       <c r="J9" s="3">
+        <v>24500</v>
+      </c>
+      <c r="K9" s="3">
         <v>20600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>22000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>20400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>15300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>11000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>10200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>6300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4900</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>167700</v>
+        <v>184900</v>
       </c>
       <c r="E10" s="3">
-        <v>142000</v>
+        <v>168100</v>
       </c>
       <c r="F10" s="3">
-        <v>121200</v>
+        <v>142300</v>
       </c>
       <c r="G10" s="3">
-        <v>134700</v>
+        <v>121500</v>
       </c>
       <c r="H10" s="3">
-        <v>129200</v>
+        <v>135000</v>
       </c>
       <c r="I10" s="3">
-        <v>132300</v>
+        <v>129500</v>
       </c>
       <c r="J10" s="3">
+        <v>132600</v>
+      </c>
+      <c r="K10" s="3">
         <v>129600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>150200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>145700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>97900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>78800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>76800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>54900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>38600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>40600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>38500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>32300</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +949,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>50400</v>
+        <v>57200</v>
       </c>
       <c r="E12" s="3">
-        <v>45900</v>
+        <v>50500</v>
       </c>
       <c r="F12" s="3">
-        <v>40500</v>
+        <v>46000</v>
       </c>
       <c r="G12" s="3">
-        <v>40000</v>
+        <v>40600</v>
       </c>
       <c r="H12" s="3">
-        <v>42400</v>
+        <v>40100</v>
       </c>
       <c r="I12" s="3">
+        <v>42500</v>
+      </c>
+      <c r="J12" s="3">
         <v>40100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>27400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>29800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>35500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>23500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>21200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>20600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>17200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>16500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>15600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>14100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>10900</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1080,32 +1100,35 @@
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="3">
         <v>-300</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="3">
         <v>-200</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>180800</v>
+        <v>185800</v>
       </c>
       <c r="E17" s="3">
-        <v>186700</v>
+        <v>181200</v>
       </c>
       <c r="F17" s="3">
-        <v>196000</v>
+        <v>187100</v>
       </c>
       <c r="G17" s="3">
-        <v>143400</v>
+        <v>196500</v>
       </c>
       <c r="H17" s="3">
-        <v>142700</v>
+        <v>143700</v>
       </c>
       <c r="I17" s="3">
-        <v>157200</v>
+        <v>143100</v>
       </c>
       <c r="J17" s="3">
+        <v>157600</v>
+      </c>
+      <c r="K17" s="3">
         <v>115400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>128000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>368000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>139100</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R17" s="3">
         <v>88900</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>24100</v>
+        <v>36000</v>
       </c>
       <c r="E18" s="3">
+        <v>24200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-10700</v>
       </c>
-      <c r="F18" s="3">
-        <v>-46900</v>
-      </c>
       <c r="G18" s="3">
-        <v>19000</v>
+        <v>-47000</v>
       </c>
       <c r="H18" s="3">
+        <v>19100</v>
+      </c>
+      <c r="I18" s="3">
         <v>10500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>34900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>44200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-202000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-25900</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R18" s="3">
         <v>-44300</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,64 +1346,68 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>21200</v>
+        <v>27200</v>
       </c>
       <c r="E20" s="3">
+        <v>21300</v>
+      </c>
+      <c r="F20" s="3">
         <v>18200</v>
       </c>
-      <c r="F20" s="3">
-        <v>17000</v>
-      </c>
       <c r="G20" s="3">
+        <v>17100</v>
+      </c>
+      <c r="H20" s="3">
         <v>14000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>600</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="S20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1401,32 +1438,35 @@
       <c r="L21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N21" s="3">
         <v>-22800</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R21" s="3">
         <v>-43200</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>10</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,94 +1521,100 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>45300</v>
+        <v>63200</v>
       </c>
       <c r="E23" s="3">
+        <v>45400</v>
+      </c>
+      <c r="F23" s="3">
         <v>7500</v>
       </c>
-      <c r="F23" s="3">
-        <v>-29900</v>
-      </c>
       <c r="G23" s="3">
-        <v>33000</v>
+        <v>-30000</v>
       </c>
       <c r="H23" s="3">
+        <v>33100</v>
+      </c>
+      <c r="I23" s="3">
         <v>13000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>36200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>45000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-201000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-25300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-73700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-24700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-44000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-17900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-9800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-9900</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E24" s="3">
         <v>2700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-4400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4300</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>58800</v>
+      </c>
+      <c r="E26" s="3">
         <v>42700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-25500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>29200</v>
       </c>
-      <c r="H26" s="3">
-        <v>12700</v>
-      </c>
       <c r="I26" s="3">
+        <v>12800</v>
+      </c>
+      <c r="J26" s="3">
         <v>-1700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>32100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>40700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-201000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-25300</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R26" s="3">
         <v>-44000</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>10</v>
       </c>
       <c r="T26" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>58800</v>
+      </c>
+      <c r="E27" s="3">
         <v>42700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-25500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>29200</v>
       </c>
-      <c r="H27" s="3">
-        <v>12700</v>
-      </c>
       <c r="I27" s="3">
+        <v>12800</v>
+      </c>
+      <c r="J27" s="3">
         <v>-1700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>32100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>40700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-211200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-38600</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R27" s="3">
         <v>-54200</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>10</v>
       </c>
       <c r="T27" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-21200</v>
+        <v>-27200</v>
       </c>
       <c r="E32" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-18200</v>
       </c>
-      <c r="F32" s="3">
-        <v>-17000</v>
-      </c>
       <c r="G32" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="H32" s="3">
         <v>-14000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-600</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="S32" s="3" t="s">
         <v>10</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>58800</v>
+      </c>
+      <c r="E33" s="3">
         <v>42700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-25500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>29200</v>
       </c>
-      <c r="H33" s="3">
-        <v>12700</v>
-      </c>
       <c r="I33" s="3">
+        <v>12800</v>
+      </c>
+      <c r="J33" s="3">
         <v>-1700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>32100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>40700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-211200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-38600</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R33" s="3">
         <v>-54200</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>10</v>
       </c>
       <c r="T33" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>58800</v>
+      </c>
+      <c r="E35" s="3">
         <v>42700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-25500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>29200</v>
       </c>
-      <c r="H35" s="3">
-        <v>12700</v>
-      </c>
       <c r="I35" s="3">
+        <v>12800</v>
+      </c>
+      <c r="J35" s="3">
         <v>-1700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>32100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>40700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-211200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-38600</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R35" s="3">
         <v>-54200</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>10</v>
       </c>
       <c r="T35" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,44 +2400,45 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>377600</v>
+        <v>337600</v>
       </c>
       <c r="E41" s="3">
-        <v>861800</v>
+        <v>378400</v>
       </c>
       <c r="F41" s="3">
-        <v>1343600</v>
+        <v>863600</v>
       </c>
       <c r="G41" s="3">
-        <v>1537500</v>
+        <v>1346500</v>
       </c>
       <c r="H41" s="3">
-        <v>1677300</v>
+        <v>1540800</v>
       </c>
       <c r="I41" s="3">
-        <v>1564700</v>
+        <v>1681000</v>
       </c>
       <c r="J41" s="3">
+        <v>1568100</v>
+      </c>
+      <c r="K41" s="3">
         <v>1562700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1529000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1576300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>589000</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>10</v>
       </c>
@@ -2370,44 +2457,47 @@
       <c r="T41" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1384700</v>
+        <v>1429800</v>
       </c>
       <c r="E42" s="3">
-        <v>992200</v>
+        <v>1387700</v>
       </c>
       <c r="F42" s="3">
-        <v>476500</v>
+        <v>994400</v>
       </c>
       <c r="G42" s="3">
-        <v>380900</v>
+        <v>477500</v>
       </c>
       <c r="H42" s="3">
-        <v>111900</v>
+        <v>381700</v>
       </c>
       <c r="I42" s="3">
-        <v>147200</v>
+        <v>112200</v>
       </c>
       <c r="J42" s="3">
+        <v>147500</v>
+      </c>
+      <c r="K42" s="3">
         <v>121900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>168400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>88100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>79000</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>10</v>
       </c>
@@ -2426,44 +2516,47 @@
       <c r="T42" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3400</v>
+        <v>3100</v>
       </c>
       <c r="E43" s="3">
         <v>3400</v>
       </c>
       <c r="F43" s="3">
-        <v>2100</v>
+        <v>3400</v>
       </c>
       <c r="G43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H43" s="3">
         <v>2000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1600</v>
       </c>
-      <c r="I43" s="3">
-        <v>1400</v>
-      </c>
       <c r="J43" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K43" s="3">
         <v>57000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>19500</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>10</v>
       </c>
@@ -2482,8 +2575,11 @@
       <c r="T43" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,44 +2634,47 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>60200</v>
+        <v>87700</v>
       </c>
       <c r="E45" s="3">
-        <v>65600</v>
+        <v>60300</v>
       </c>
       <c r="F45" s="3">
-        <v>82800</v>
+        <v>65700</v>
       </c>
       <c r="G45" s="3">
-        <v>75700</v>
+        <v>83000</v>
       </c>
       <c r="H45" s="3">
-        <v>71700</v>
+        <v>75800</v>
       </c>
       <c r="I45" s="3">
-        <v>80300</v>
+        <v>71900</v>
       </c>
       <c r="J45" s="3">
+        <v>80500</v>
+      </c>
+      <c r="K45" s="3">
         <v>43800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>85700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>37400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>22200</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>10</v>
       </c>
@@ -2594,44 +2693,47 @@
       <c r="T45" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1825900</v>
+        <v>1858200</v>
       </c>
       <c r="E46" s="3">
-        <v>1922900</v>
+        <v>1829900</v>
       </c>
       <c r="F46" s="3">
-        <v>1905000</v>
+        <v>1927100</v>
       </c>
       <c r="G46" s="3">
-        <v>1996000</v>
+        <v>1909100</v>
       </c>
       <c r="H46" s="3">
-        <v>1862600</v>
+        <v>2000300</v>
       </c>
       <c r="I46" s="3">
-        <v>1793700</v>
+        <v>1866600</v>
       </c>
       <c r="J46" s="3">
+        <v>1797600</v>
+      </c>
+      <c r="K46" s="3">
         <v>1785500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1784200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1703500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>709700</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>10</v>
       </c>
@@ -2650,16 +2752,19 @@
       <c r="T46" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>269000</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>10</v>
+        <v>332200</v>
+      </c>
+      <c r="E47" s="3">
+        <v>269600</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>10</v>
@@ -2676,8 +2781,8 @@
       <c r="J47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2706,44 +2811,47 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>159700</v>
+        <v>199200</v>
       </c>
       <c r="E48" s="3">
-        <v>141800</v>
+        <v>160100</v>
       </c>
       <c r="F48" s="3">
-        <v>135100</v>
+        <v>142100</v>
       </c>
       <c r="G48" s="3">
-        <v>118700</v>
+        <v>135400</v>
       </c>
       <c r="H48" s="3">
-        <v>117100</v>
+        <v>118900</v>
       </c>
       <c r="I48" s="3">
-        <v>98100</v>
+        <v>117300</v>
       </c>
       <c r="J48" s="3">
+        <v>98300</v>
+      </c>
+      <c r="K48" s="3">
         <v>93400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>75400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>59900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>53900</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>10</v>
       </c>
@@ -2762,8 +2870,11 @@
       <c r="T48" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2774,10 +2885,10 @@
         <v>2100</v>
       </c>
       <c r="F49" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G49" s="3">
         <v>2200</v>
-      </c>
-      <c r="G49" s="3">
-        <v>100</v>
       </c>
       <c r="H49" s="3">
         <v>100</v>
@@ -2797,8 +2908,8 @@
       <c r="M49" s="3">
         <v>100</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>10</v>
+      <c r="N49" s="3">
+        <v>100</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>10</v>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2963,11 +3083,11 @@
         <v>600</v>
       </c>
       <c r="M52" s="3">
+        <v>600</v>
+      </c>
+      <c r="N52" s="3">
         <v>100</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>10</v>
       </c>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,44 +3165,47 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2257200</v>
+        <v>2392000</v>
       </c>
       <c r="E54" s="3">
-        <v>2067400</v>
+        <v>2262100</v>
       </c>
       <c r="F54" s="3">
-        <v>2042800</v>
+        <v>2071900</v>
       </c>
       <c r="G54" s="3">
-        <v>2115300</v>
+        <v>2047300</v>
       </c>
       <c r="H54" s="3">
-        <v>1980300</v>
+        <v>2119900</v>
       </c>
       <c r="I54" s="3">
-        <v>1892400</v>
+        <v>1984600</v>
       </c>
       <c r="J54" s="3">
+        <v>1896500</v>
+      </c>
+      <c r="K54" s="3">
         <v>1879500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1860200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1764000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>763800</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>10</v>
       </c>
@@ -3098,8 +3224,11 @@
       <c r="T54" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,44 +3272,45 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>95500</v>
+        <v>128900</v>
       </c>
       <c r="E57" s="3">
-        <v>69200</v>
+        <v>95800</v>
       </c>
       <c r="F57" s="3">
-        <v>112800</v>
+        <v>69300</v>
       </c>
       <c r="G57" s="3">
-        <v>95200</v>
+        <v>113100</v>
       </c>
       <c r="H57" s="3">
-        <v>96400</v>
+        <v>95400</v>
       </c>
       <c r="I57" s="3">
-        <v>77500</v>
+        <v>96600</v>
       </c>
       <c r="J57" s="3">
+        <v>77700</v>
+      </c>
+      <c r="K57" s="3">
         <v>7000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>67300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>67500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>13600</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>10</v>
       </c>
@@ -3198,8 +3329,11 @@
       <c r="T57" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,44 +3388,47 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>373900</v>
+        <v>377000</v>
       </c>
       <c r="E59" s="3">
-        <v>355900</v>
+        <v>374700</v>
       </c>
       <c r="F59" s="3">
-        <v>304800</v>
+        <v>356700</v>
       </c>
       <c r="G59" s="3">
-        <v>301600</v>
+        <v>305500</v>
       </c>
       <c r="H59" s="3">
-        <v>292800</v>
+        <v>302300</v>
       </c>
       <c r="I59" s="3">
-        <v>308800</v>
+        <v>293400</v>
       </c>
       <c r="J59" s="3">
+        <v>309500</v>
+      </c>
+      <c r="K59" s="3">
         <v>376600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>281400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>277800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>285400</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>10</v>
       </c>
@@ -3310,44 +3447,47 @@
       <c r="T59" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>469400</v>
+        <v>505900</v>
       </c>
       <c r="E60" s="3">
-        <v>425100</v>
+        <v>470500</v>
       </c>
       <c r="F60" s="3">
-        <v>417600</v>
+        <v>426000</v>
       </c>
       <c r="G60" s="3">
-        <v>396800</v>
+        <v>418500</v>
       </c>
       <c r="H60" s="3">
-        <v>389200</v>
+        <v>397700</v>
       </c>
       <c r="I60" s="3">
-        <v>386300</v>
+        <v>390000</v>
       </c>
       <c r="J60" s="3">
+        <v>387100</v>
+      </c>
+      <c r="K60" s="3">
         <v>383600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>348700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>345300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>299000</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>10</v>
       </c>
@@ -3366,8 +3506,11 @@
       <c r="T60" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,44 +3565,47 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E62" s="3">
         <v>19800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>21000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>21400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>22600</v>
       </c>
-      <c r="H62" s="3">
-        <v>22900</v>
-      </c>
       <c r="I62" s="3">
+        <v>23000</v>
+      </c>
+      <c r="J62" s="3">
         <v>22500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>25300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>22500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>14000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>13400</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>10</v>
       </c>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,44 +3801,47 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>489200</v>
+        <v>524500</v>
       </c>
       <c r="E66" s="3">
-        <v>446100</v>
+        <v>490300</v>
       </c>
       <c r="F66" s="3">
-        <v>439000</v>
+        <v>447000</v>
       </c>
       <c r="G66" s="3">
-        <v>419400</v>
+        <v>439900</v>
       </c>
       <c r="H66" s="3">
-        <v>412100</v>
+        <v>420300</v>
       </c>
       <c r="I66" s="3">
-        <v>408700</v>
+        <v>413000</v>
       </c>
       <c r="J66" s="3">
+        <v>409600</v>
+      </c>
+      <c r="K66" s="3">
         <v>408900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>371200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>359300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>312400</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>10</v>
       </c>
@@ -3702,8 +3860,11 @@
       <c r="T66" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3869,11 +4037,11 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>830500</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,44 +4119,47 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>-447000</v>
+      <c r="D72" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E72" s="3">
-        <v>-489600</v>
+        <v>-448000</v>
       </c>
       <c r="F72" s="3">
-        <v>-494100</v>
+        <v>-490700</v>
       </c>
       <c r="G72" s="3">
-        <v>-468600</v>
+        <v>-495200</v>
       </c>
       <c r="H72" s="3">
-        <v>-495700</v>
+        <v>-469600</v>
       </c>
       <c r="I72" s="3">
-        <v>-510500</v>
+        <v>-496800</v>
       </c>
       <c r="J72" s="3">
+        <v>-511600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-508800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-558100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-598800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-401900</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>10</v>
       </c>
@@ -4004,8 +4178,11 @@
       <c r="T72" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,44 +4355,47 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1768000</v>
+        <v>1867500</v>
       </c>
       <c r="E76" s="3">
-        <v>1621300</v>
+        <v>1771800</v>
       </c>
       <c r="F76" s="3">
-        <v>1603900</v>
+        <v>1624800</v>
       </c>
       <c r="G76" s="3">
-        <v>1695900</v>
+        <v>1607400</v>
       </c>
       <c r="H76" s="3">
-        <v>1568200</v>
+        <v>1699600</v>
       </c>
       <c r="I76" s="3">
-        <v>1483700</v>
+        <v>1571600</v>
       </c>
       <c r="J76" s="3">
+        <v>1486900</v>
+      </c>
+      <c r="K76" s="3">
         <v>1470700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1489000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1404700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-379100</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>10</v>
       </c>
@@ -4228,8 +4414,11 @@
       <c r="T76" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>58800</v>
+      </c>
+      <c r="E81" s="3">
         <v>42700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-25500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>29200</v>
       </c>
-      <c r="H81" s="3">
-        <v>12700</v>
-      </c>
       <c r="I81" s="3">
+        <v>12800</v>
+      </c>
+      <c r="J81" s="3">
         <v>-1700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>32100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>40700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-211200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-38600</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R81" s="3">
         <v>-54200</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>10</v>
       </c>
       <c r="T81" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4449,18 +4648,18 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>10</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N83" s="3">
         <v>2500</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>10</v>
       </c>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,44 +4973,47 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>105200</v>
+        <v>112200</v>
       </c>
       <c r="E89" s="3">
-        <v>74900</v>
+        <v>105500</v>
       </c>
       <c r="F89" s="3">
-        <v>21400</v>
+        <v>75100</v>
       </c>
       <c r="G89" s="3">
-        <v>50500</v>
+        <v>21500</v>
       </c>
       <c r="H89" s="3">
+        <v>50600</v>
+      </c>
+      <c r="I89" s="3">
         <v>25800</v>
       </c>
-      <c r="I89" s="3">
-        <v>40500</v>
-      </c>
       <c r="J89" s="3">
+        <v>40600</v>
+      </c>
+      <c r="K89" s="3">
         <v>73700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>38400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>95400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>23700</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>10</v>
       </c>
@@ -4815,8 +5032,11 @@
       <c r="T89" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5057,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4870,11 +5091,11 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-8800</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>10</v>
       </c>
@@ -4893,8 +5114,11 @@
       <c r="T91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,44 +5232,47 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-610000</v>
+        <v>-146200</v>
       </c>
       <c r="E94" s="3">
-        <v>-546000</v>
+        <v>-611400</v>
       </c>
       <c r="F94" s="3">
-        <v>-100000</v>
+        <v>-547200</v>
       </c>
       <c r="G94" s="3">
-        <v>-274600</v>
+        <v>-100200</v>
       </c>
       <c r="H94" s="3">
+        <v>-275200</v>
+      </c>
+      <c r="I94" s="3">
         <v>20100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-33600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>28100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-90700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-12900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-11000</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>10</v>
       </c>
@@ -5061,8 +5291,11 @@
       <c r="T94" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,44 +5550,47 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E100" s="3">
         <v>3200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>6300</v>
       </c>
-      <c r="F100" s="3">
-        <v>-86500</v>
-      </c>
       <c r="G100" s="3">
+        <v>-86700</v>
+      </c>
+      <c r="H100" s="3">
         <v>6400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-13400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>3000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>913200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1800</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>10</v>
       </c>
@@ -5363,44 +5609,47 @@
       <c r="T100" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E101" s="3">
         <v>17500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-17100</v>
       </c>
-      <c r="F101" s="3">
-        <v>-28800</v>
-      </c>
       <c r="G101" s="3">
-        <v>77800</v>
+        <v>-28900</v>
       </c>
       <c r="H101" s="3">
-        <v>80200</v>
+        <v>78000</v>
       </c>
       <c r="I101" s="3">
+        <v>80300</v>
+      </c>
+      <c r="J101" s="3">
         <v>-6200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-24100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>5400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3800</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O101" s="3" t="s">
         <v>10</v>
       </c>
@@ -5419,44 +5668,47 @@
       <c r="T101" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-484100</v>
+        <v>-40900</v>
       </c>
       <c r="E102" s="3">
-        <v>-481900</v>
+        <v>-485200</v>
       </c>
       <c r="F102" s="3">
-        <v>-193800</v>
+        <v>-482900</v>
       </c>
       <c r="G102" s="3">
-        <v>-139900</v>
+        <v>-194300</v>
       </c>
       <c r="H102" s="3">
-        <v>112600</v>
+        <v>-140200</v>
       </c>
       <c r="I102" s="3">
+        <v>112900</v>
+      </c>
+      <c r="J102" s="3">
         <v>2100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>80700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-47300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>993300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>14800</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>10</v>
       </c>
@@ -5473,6 +5725,9 @@
         <v>10</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>10</v>
       </c>
     </row>
